--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_共通デザイン.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_共通デザイン.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\growthTeamDocument\2021年_テトリス\02_基本設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoitomohiro/document/flutter_document/2021年_テトリス/02_基本設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58180F0C-700D-414D-AB54-72B5A142C3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03E0FB7-B7A3-0D42-B365-669C2CF766D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-450" windowWidth="29040" windowHeight="15990" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="1" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">共通デザイン!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ヘッダー!$A$1:$AZ$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$BA$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">共通デザイン!$A$1:$AX$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">共通デザイン!$A$1:$AX$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>URL:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・画面背景画像</t>
     <rPh sb="1" eb="3">
       <t>ガメン</t>
@@ -404,6 +400,37 @@
     <t>アクション定義</t>
     <rPh sb="5" eb="7">
       <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL: https://fonts.google.com/specimen/Yuji+Boku?subset=japanese#standard-styles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画像URL: https://i.gyazo.com/89fcd16e0491ae08b4d311638ba87f77.jpg</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糸井</t>
+    <rPh sb="0" eb="2">
+      <t>イトイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通フォント・画面背景画像URL追加</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="7" eb="13">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -826,6 +853,15 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,15 +969,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,7 +1017,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3418"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3445"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1049,7 +1076,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2389"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2416"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1079,14 +1106,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>44097</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>44096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>146793</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>77049</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>77050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1122,14 +1149,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>52917</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>26459</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>36348</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>44098</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44097</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1165,13 +1192,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>70556</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>43220</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>15618</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1205,227 +1232,17 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>35277</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123472</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>123472</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123472</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F812D6FD-B113-4366-ACF3-7376C68C6833}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3563055" y="2046111"/>
-          <a:ext cx="2072570" cy="670278"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -164237"/>
-            <a:gd name="adj2" fmla="val 24051"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>背景素材を糸井さんからもらい共通で使用</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>46565</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>134760</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="吹き出し: 四角形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85843247-9339-4514-8D91-93F470392F9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3574343" y="1325386"/>
-          <a:ext cx="2072570" cy="670278"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -179982"/>
-            <a:gd name="adj2" fmla="val -41739"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>糸井さんからもらい</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>共通で使用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>URL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>も確認</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>116802</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>107177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1764,194 +1581,198 @@
   </sheetPr>
   <dimension ref="A1:BB4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF24" sqref="AF24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="50" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="50" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="50" t="s">
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="50" t="s">
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="52"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="55"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="53" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="53" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="59">
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="62">
         <v>44619</v>
       </c>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="53" t="s">
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="55"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="62">
+        <v>44641</v>
+      </c>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="58"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="58"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="66"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="59"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="61"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -1992,23 +1813,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B6673E-2360-A946-8C72-565FE4FC3012}">
   <dimension ref="A1:AZ34"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20:AL20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="6" width="3.28515625" style="3"/>
-    <col min="7" max="7" width="3.28515625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="3.28515625" style="3"/>
+    <col min="1" max="6" width="3.33203125" style="3"/>
+    <col min="7" max="7" width="3.33203125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="3.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" customFormat="1" ht="12">
+    <row r="1" spans="1:52" customFormat="1" ht="15">
       <c r="A1" s="12"/>
     </row>
-    <row r="2" spans="1:52" customFormat="1" ht="12"/>
-    <row r="3" spans="1:52" customFormat="1" ht="12"/>
-    <row r="4" spans="1:52" customFormat="1" ht="12"/>
-    <row r="5" spans="1:52" customFormat="1" ht="12"/>
-    <row r="7" spans="1:52" ht="14.25">
+    <row r="2" spans="1:52" customFormat="1" ht="15"/>
+    <row r="3" spans="1:52" customFormat="1" ht="15"/>
+    <row r="4" spans="1:52" customFormat="1" ht="15"/>
+    <row r="5" spans="1:52" customFormat="1" ht="15"/>
+    <row r="7" spans="1:52" ht="18">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -2080,121 +1903,129 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="65">
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="68">
         <v>44619</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="68" t="s">
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="68" t="s">
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="68"/>
-      <c r="AN8" s="69"/>
-      <c r="AO8" s="69"/>
-      <c r="AP8" s="69"/>
-      <c r="AQ8" s="69"/>
-      <c r="AR8" s="69"/>
-      <c r="AS8" s="69"/>
-      <c r="AT8" s="69"/>
-      <c r="AU8" s="69"/>
-      <c r="AV8" s="69"/>
-      <c r="AW8" s="69"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="70"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="72"/>
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="72"/>
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="72"/>
+      <c r="AY8" s="72"/>
+      <c r="AZ8" s="73"/>
     </row>
     <row r="9" spans="1:52">
-      <c r="A9" s="9" t="str">
+      <c r="A9" s="9">
         <f t="shared" ref="A9:A34" si="0">IF(G9="","",ROW()-7)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="69"/>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="69"/>
-      <c r="AK9" s="69"/>
-      <c r="AL9" s="70"/>
-      <c r="AM9" s="68"/>
-      <c r="AN9" s="69"/>
-      <c r="AO9" s="69"/>
-      <c r="AP9" s="69"/>
-      <c r="AQ9" s="69"/>
-      <c r="AR9" s="69"/>
-      <c r="AS9" s="69"/>
-      <c r="AT9" s="69"/>
-      <c r="AU9" s="69"/>
-      <c r="AV9" s="69"/>
-      <c r="AW9" s="69"/>
-      <c r="AX9" s="69"/>
-      <c r="AY9" s="69"/>
-      <c r="AZ9" s="70"/>
+      <c r="C9" s="74">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="68">
+        <v>44641</v>
+      </c>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="71"/>
+      <c r="AN9" s="72"/>
+      <c r="AO9" s="72"/>
+      <c r="AP9" s="72"/>
+      <c r="AQ9" s="72"/>
+      <c r="AR9" s="72"/>
+      <c r="AS9" s="72"/>
+      <c r="AT9" s="72"/>
+      <c r="AU9" s="72"/>
+      <c r="AV9" s="72"/>
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="73"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9" t="str">
@@ -2202,56 +2033,56 @@
         <v/>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="70"/>
-      <c r="AM10" s="68"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="70"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="73"/>
+      <c r="AM10" s="71"/>
+      <c r="AN10" s="72"/>
+      <c r="AO10" s="72"/>
+      <c r="AP10" s="72"/>
+      <c r="AQ10" s="72"/>
+      <c r="AR10" s="72"/>
+      <c r="AS10" s="72"/>
+      <c r="AT10" s="72"/>
+      <c r="AU10" s="72"/>
+      <c r="AV10" s="72"/>
+      <c r="AW10" s="72"/>
+      <c r="AX10" s="72"/>
+      <c r="AY10" s="72"/>
+      <c r="AZ10" s="73"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9" t="str">
@@ -2259,56 +2090,56 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
-      <c r="AL11" s="70"/>
-      <c r="AM11" s="68"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="69"/>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="70"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="73"/>
+      <c r="AM11" s="71"/>
+      <c r="AN11" s="72"/>
+      <c r="AO11" s="72"/>
+      <c r="AP11" s="72"/>
+      <c r="AQ11" s="72"/>
+      <c r="AR11" s="72"/>
+      <c r="AS11" s="72"/>
+      <c r="AT11" s="72"/>
+      <c r="AU11" s="72"/>
+      <c r="AV11" s="72"/>
+      <c r="AW11" s="72"/>
+      <c r="AX11" s="72"/>
+      <c r="AY11" s="72"/>
+      <c r="AZ11" s="73"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -2316,56 +2147,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="69"/>
-      <c r="AL12" s="70"/>
-      <c r="AM12" s="68"/>
-      <c r="AN12" s="69"/>
-      <c r="AO12" s="69"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="69"/>
-      <c r="AS12" s="69"/>
-      <c r="AT12" s="69"/>
-      <c r="AU12" s="69"/>
-      <c r="AV12" s="69"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="70"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="71"/>
+      <c r="AN12" s="72"/>
+      <c r="AO12" s="72"/>
+      <c r="AP12" s="72"/>
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="72"/>
+      <c r="AV12" s="72"/>
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="72"/>
+      <c r="AY12" s="72"/>
+      <c r="AZ12" s="73"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -2373,56 +2204,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="70"/>
-      <c r="AM13" s="68"/>
-      <c r="AN13" s="69"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="69"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="69"/>
-      <c r="AT13" s="69"/>
-      <c r="AU13" s="69"/>
-      <c r="AV13" s="69"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="70"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="73"/>
+      <c r="AM13" s="71"/>
+      <c r="AN13" s="72"/>
+      <c r="AO13" s="72"/>
+      <c r="AP13" s="72"/>
+      <c r="AQ13" s="72"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="72"/>
+      <c r="AV13" s="72"/>
+      <c r="AW13" s="72"/>
+      <c r="AX13" s="72"/>
+      <c r="AY13" s="72"/>
+      <c r="AZ13" s="73"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -2430,56 +2261,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="69"/>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="69"/>
-      <c r="AL14" s="70"/>
-      <c r="AM14" s="68"/>
-      <c r="AN14" s="69"/>
-      <c r="AO14" s="69"/>
-      <c r="AP14" s="69"/>
-      <c r="AQ14" s="69"/>
-      <c r="AR14" s="69"/>
-      <c r="AS14" s="69"/>
-      <c r="AT14" s="69"/>
-      <c r="AU14" s="69"/>
-      <c r="AV14" s="69"/>
-      <c r="AW14" s="69"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="69"/>
-      <c r="AZ14" s="70"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="73"/>
+      <c r="AM14" s="71"/>
+      <c r="AN14" s="72"/>
+      <c r="AO14" s="72"/>
+      <c r="AP14" s="72"/>
+      <c r="AQ14" s="72"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="72"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="72"/>
+      <c r="AV14" s="72"/>
+      <c r="AW14" s="72"/>
+      <c r="AX14" s="72"/>
+      <c r="AY14" s="72"/>
+      <c r="AZ14" s="73"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -2487,56 +2318,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="69"/>
-      <c r="AL15" s="70"/>
-      <c r="AM15" s="68"/>
-      <c r="AN15" s="69"/>
-      <c r="AO15" s="69"/>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="69"/>
-      <c r="AS15" s="69"/>
-      <c r="AT15" s="69"/>
-      <c r="AU15" s="69"/>
-      <c r="AV15" s="69"/>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="69"/>
-      <c r="AZ15" s="70"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="72"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="72"/>
+      <c r="AL15" s="73"/>
+      <c r="AM15" s="71"/>
+      <c r="AN15" s="72"/>
+      <c r="AO15" s="72"/>
+      <c r="AP15" s="72"/>
+      <c r="AQ15" s="72"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="72"/>
+      <c r="AV15" s="72"/>
+      <c r="AW15" s="72"/>
+      <c r="AX15" s="72"/>
+      <c r="AY15" s="72"/>
+      <c r="AZ15" s="73"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -2544,56 +2375,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="69"/>
-      <c r="AL16" s="70"/>
-      <c r="AM16" s="68"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="69"/>
-      <c r="AS16" s="69"/>
-      <c r="AT16" s="69"/>
-      <c r="AU16" s="69"/>
-      <c r="AV16" s="69"/>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="69"/>
-      <c r="AZ16" s="70"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="73"/>
+      <c r="AM16" s="71"/>
+      <c r="AN16" s="72"/>
+      <c r="AO16" s="72"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="72"/>
+      <c r="AW16" s="72"/>
+      <c r="AX16" s="72"/>
+      <c r="AY16" s="72"/>
+      <c r="AZ16" s="73"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -2601,56 +2432,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="69"/>
-      <c r="AL17" s="70"/>
-      <c r="AM17" s="68"/>
-      <c r="AN17" s="69"/>
-      <c r="AO17" s="69"/>
-      <c r="AP17" s="69"/>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="69"/>
-      <c r="AS17" s="69"/>
-      <c r="AT17" s="69"/>
-      <c r="AU17" s="69"/>
-      <c r="AV17" s="69"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="70"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="71"/>
+      <c r="AN17" s="72"/>
+      <c r="AO17" s="72"/>
+      <c r="AP17" s="72"/>
+      <c r="AQ17" s="72"/>
+      <c r="AR17" s="72"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="72"/>
+      <c r="AV17" s="72"/>
+      <c r="AW17" s="72"/>
+      <c r="AX17" s="72"/>
+      <c r="AY17" s="72"/>
+      <c r="AZ17" s="73"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -2658,56 +2489,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="70"/>
-      <c r="AM18" s="68"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="69"/>
-      <c r="AR18" s="69"/>
-      <c r="AS18" s="69"/>
-      <c r="AT18" s="69"/>
-      <c r="AU18" s="69"/>
-      <c r="AV18" s="69"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="69"/>
-      <c r="AZ18" s="70"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="73"/>
+      <c r="AM18" s="71"/>
+      <c r="AN18" s="72"/>
+      <c r="AO18" s="72"/>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72"/>
+      <c r="AW18" s="72"/>
+      <c r="AX18" s="72"/>
+      <c r="AY18" s="72"/>
+      <c r="AZ18" s="73"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -2715,56 +2546,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="69"/>
-      <c r="AJ19" s="69"/>
-      <c r="AK19" s="69"/>
-      <c r="AL19" s="70"/>
-      <c r="AM19" s="68"/>
-      <c r="AN19" s="69"/>
-      <c r="AO19" s="69"/>
-      <c r="AP19" s="69"/>
-      <c r="AQ19" s="69"/>
-      <c r="AR19" s="69"/>
-      <c r="AS19" s="69"/>
-      <c r="AT19" s="69"/>
-      <c r="AU19" s="69"/>
-      <c r="AV19" s="69"/>
-      <c r="AW19" s="69"/>
-      <c r="AX19" s="69"/>
-      <c r="AY19" s="69"/>
-      <c r="AZ19" s="70"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="72"/>
+      <c r="AF19" s="72"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="72"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="73"/>
+      <c r="AM19" s="71"/>
+      <c r="AN19" s="72"/>
+      <c r="AO19" s="72"/>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="72"/>
+      <c r="AR19" s="72"/>
+      <c r="AS19" s="72"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="72"/>
+      <c r="AV19" s="72"/>
+      <c r="AW19" s="72"/>
+      <c r="AX19" s="72"/>
+      <c r="AY19" s="72"/>
+      <c r="AZ19" s="73"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -2772,56 +2603,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="69"/>
-      <c r="AJ20" s="69"/>
-      <c r="AK20" s="69"/>
-      <c r="AL20" s="70"/>
-      <c r="AM20" s="68"/>
-      <c r="AN20" s="69"/>
-      <c r="AO20" s="69"/>
-      <c r="AP20" s="69"/>
-      <c r="AQ20" s="69"/>
-      <c r="AR20" s="69"/>
-      <c r="AS20" s="69"/>
-      <c r="AT20" s="69"/>
-      <c r="AU20" s="69"/>
-      <c r="AV20" s="69"/>
-      <c r="AW20" s="69"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="69"/>
-      <c r="AZ20" s="70"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="72"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="73"/>
+      <c r="AM20" s="71"/>
+      <c r="AN20" s="72"/>
+      <c r="AO20" s="72"/>
+      <c r="AP20" s="72"/>
+      <c r="AQ20" s="72"/>
+      <c r="AR20" s="72"/>
+      <c r="AS20" s="72"/>
+      <c r="AT20" s="72"/>
+      <c r="AU20" s="72"/>
+      <c r="AV20" s="72"/>
+      <c r="AW20" s="72"/>
+      <c r="AX20" s="72"/>
+      <c r="AY20" s="72"/>
+      <c r="AZ20" s="73"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -2829,56 +2660,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="69"/>
-      <c r="AC21" s="69"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="69"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="69"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="69"/>
-      <c r="AL21" s="70"/>
-      <c r="AM21" s="68"/>
-      <c r="AN21" s="69"/>
-      <c r="AO21" s="69"/>
-      <c r="AP21" s="69"/>
-      <c r="AQ21" s="69"/>
-      <c r="AR21" s="69"/>
-      <c r="AS21" s="69"/>
-      <c r="AT21" s="69"/>
-      <c r="AU21" s="69"/>
-      <c r="AV21" s="69"/>
-      <c r="AW21" s="69"/>
-      <c r="AX21" s="69"/>
-      <c r="AY21" s="69"/>
-      <c r="AZ21" s="70"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="72"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="72"/>
+      <c r="AF21" s="72"/>
+      <c r="AG21" s="72"/>
+      <c r="AH21" s="72"/>
+      <c r="AI21" s="72"/>
+      <c r="AJ21" s="72"/>
+      <c r="AK21" s="72"/>
+      <c r="AL21" s="73"/>
+      <c r="AM21" s="71"/>
+      <c r="AN21" s="72"/>
+      <c r="AO21" s="72"/>
+      <c r="AP21" s="72"/>
+      <c r="AQ21" s="72"/>
+      <c r="AR21" s="72"/>
+      <c r="AS21" s="72"/>
+      <c r="AT21" s="72"/>
+      <c r="AU21" s="72"/>
+      <c r="AV21" s="72"/>
+      <c r="AW21" s="72"/>
+      <c r="AX21" s="72"/>
+      <c r="AY21" s="72"/>
+      <c r="AZ21" s="73"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -2886,56 +2717,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="69"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="69"/>
-      <c r="AJ22" s="69"/>
-      <c r="AK22" s="69"/>
-      <c r="AL22" s="70"/>
-      <c r="AM22" s="68"/>
-      <c r="AN22" s="69"/>
-      <c r="AO22" s="69"/>
-      <c r="AP22" s="69"/>
-      <c r="AQ22" s="69"/>
-      <c r="AR22" s="69"/>
-      <c r="AS22" s="69"/>
-      <c r="AT22" s="69"/>
-      <c r="AU22" s="69"/>
-      <c r="AV22" s="69"/>
-      <c r="AW22" s="69"/>
-      <c r="AX22" s="69"/>
-      <c r="AY22" s="69"/>
-      <c r="AZ22" s="70"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="72"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="72"/>
+      <c r="AI22" s="72"/>
+      <c r="AJ22" s="72"/>
+      <c r="AK22" s="72"/>
+      <c r="AL22" s="73"/>
+      <c r="AM22" s="71"/>
+      <c r="AN22" s="72"/>
+      <c r="AO22" s="72"/>
+      <c r="AP22" s="72"/>
+      <c r="AQ22" s="72"/>
+      <c r="AR22" s="72"/>
+      <c r="AS22" s="72"/>
+      <c r="AT22" s="72"/>
+      <c r="AU22" s="72"/>
+      <c r="AV22" s="72"/>
+      <c r="AW22" s="72"/>
+      <c r="AX22" s="72"/>
+      <c r="AY22" s="72"/>
+      <c r="AZ22" s="73"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -2943,56 +2774,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="69"/>
-      <c r="AB23" s="69"/>
-      <c r="AC23" s="69"/>
-      <c r="AD23" s="69"/>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="69"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="69"/>
-      <c r="AI23" s="69"/>
-      <c r="AJ23" s="69"/>
-      <c r="AK23" s="69"/>
-      <c r="AL23" s="70"/>
-      <c r="AM23" s="68"/>
-      <c r="AN23" s="69"/>
-      <c r="AO23" s="69"/>
-      <c r="AP23" s="69"/>
-      <c r="AQ23" s="69"/>
-      <c r="AR23" s="69"/>
-      <c r="AS23" s="69"/>
-      <c r="AT23" s="69"/>
-      <c r="AU23" s="69"/>
-      <c r="AV23" s="69"/>
-      <c r="AW23" s="69"/>
-      <c r="AX23" s="69"/>
-      <c r="AY23" s="69"/>
-      <c r="AZ23" s="70"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="72"/>
+      <c r="AI23" s="72"/>
+      <c r="AJ23" s="72"/>
+      <c r="AK23" s="72"/>
+      <c r="AL23" s="73"/>
+      <c r="AM23" s="71"/>
+      <c r="AN23" s="72"/>
+      <c r="AO23" s="72"/>
+      <c r="AP23" s="72"/>
+      <c r="AQ23" s="72"/>
+      <c r="AR23" s="72"/>
+      <c r="AS23" s="72"/>
+      <c r="AT23" s="72"/>
+      <c r="AU23" s="72"/>
+      <c r="AV23" s="72"/>
+      <c r="AW23" s="72"/>
+      <c r="AX23" s="72"/>
+      <c r="AY23" s="72"/>
+      <c r="AZ23" s="73"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -3000,56 +2831,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="69"/>
-      <c r="AB24" s="69"/>
-      <c r="AC24" s="69"/>
-      <c r="AD24" s="69"/>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="69"/>
-      <c r="AG24" s="69"/>
-      <c r="AH24" s="69"/>
-      <c r="AI24" s="69"/>
-      <c r="AJ24" s="69"/>
-      <c r="AK24" s="69"/>
-      <c r="AL24" s="70"/>
-      <c r="AM24" s="68"/>
-      <c r="AN24" s="69"/>
-      <c r="AO24" s="69"/>
-      <c r="AP24" s="69"/>
-      <c r="AQ24" s="69"/>
-      <c r="AR24" s="69"/>
-      <c r="AS24" s="69"/>
-      <c r="AT24" s="69"/>
-      <c r="AU24" s="69"/>
-      <c r="AV24" s="69"/>
-      <c r="AW24" s="69"/>
-      <c r="AX24" s="69"/>
-      <c r="AY24" s="69"/>
-      <c r="AZ24" s="70"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="72"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="72"/>
+      <c r="AJ24" s="72"/>
+      <c r="AK24" s="72"/>
+      <c r="AL24" s="73"/>
+      <c r="AM24" s="71"/>
+      <c r="AN24" s="72"/>
+      <c r="AO24" s="72"/>
+      <c r="AP24" s="72"/>
+      <c r="AQ24" s="72"/>
+      <c r="AR24" s="72"/>
+      <c r="AS24" s="72"/>
+      <c r="AT24" s="72"/>
+      <c r="AU24" s="72"/>
+      <c r="AV24" s="72"/>
+      <c r="AW24" s="72"/>
+      <c r="AX24" s="72"/>
+      <c r="AY24" s="72"/>
+      <c r="AZ24" s="73"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -3057,56 +2888,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="69"/>
-      <c r="AC25" s="69"/>
-      <c r="AD25" s="69"/>
-      <c r="AE25" s="69"/>
-      <c r="AF25" s="69"/>
-      <c r="AG25" s="69"/>
-      <c r="AH25" s="69"/>
-      <c r="AI25" s="69"/>
-      <c r="AJ25" s="69"/>
-      <c r="AK25" s="69"/>
-      <c r="AL25" s="70"/>
-      <c r="AM25" s="68"/>
-      <c r="AN25" s="69"/>
-      <c r="AO25" s="69"/>
-      <c r="AP25" s="69"/>
-      <c r="AQ25" s="69"/>
-      <c r="AR25" s="69"/>
-      <c r="AS25" s="69"/>
-      <c r="AT25" s="69"/>
-      <c r="AU25" s="69"/>
-      <c r="AV25" s="69"/>
-      <c r="AW25" s="69"/>
-      <c r="AX25" s="69"/>
-      <c r="AY25" s="69"/>
-      <c r="AZ25" s="70"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="72"/>
+      <c r="AI25" s="72"/>
+      <c r="AJ25" s="72"/>
+      <c r="AK25" s="72"/>
+      <c r="AL25" s="73"/>
+      <c r="AM25" s="71"/>
+      <c r="AN25" s="72"/>
+      <c r="AO25" s="72"/>
+      <c r="AP25" s="72"/>
+      <c r="AQ25" s="72"/>
+      <c r="AR25" s="72"/>
+      <c r="AS25" s="72"/>
+      <c r="AT25" s="72"/>
+      <c r="AU25" s="72"/>
+      <c r="AV25" s="72"/>
+      <c r="AW25" s="72"/>
+      <c r="AX25" s="72"/>
+      <c r="AY25" s="72"/>
+      <c r="AZ25" s="73"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -3114,56 +2945,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="69"/>
-      <c r="AB26" s="69"/>
-      <c r="AC26" s="69"/>
-      <c r="AD26" s="69"/>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="69"/>
-      <c r="AG26" s="69"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="69"/>
-      <c r="AJ26" s="69"/>
-      <c r="AK26" s="69"/>
-      <c r="AL26" s="70"/>
-      <c r="AM26" s="68"/>
-      <c r="AN26" s="69"/>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="69"/>
-      <c r="AQ26" s="69"/>
-      <c r="AR26" s="69"/>
-      <c r="AS26" s="69"/>
-      <c r="AT26" s="69"/>
-      <c r="AU26" s="69"/>
-      <c r="AV26" s="69"/>
-      <c r="AW26" s="69"/>
-      <c r="AX26" s="69"/>
-      <c r="AY26" s="69"/>
-      <c r="AZ26" s="70"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="72"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="72"/>
+      <c r="AI26" s="72"/>
+      <c r="AJ26" s="72"/>
+      <c r="AK26" s="72"/>
+      <c r="AL26" s="73"/>
+      <c r="AM26" s="71"/>
+      <c r="AN26" s="72"/>
+      <c r="AO26" s="72"/>
+      <c r="AP26" s="72"/>
+      <c r="AQ26" s="72"/>
+      <c r="AR26" s="72"/>
+      <c r="AS26" s="72"/>
+      <c r="AT26" s="72"/>
+      <c r="AU26" s="72"/>
+      <c r="AV26" s="72"/>
+      <c r="AW26" s="72"/>
+      <c r="AX26" s="72"/>
+      <c r="AY26" s="72"/>
+      <c r="AZ26" s="73"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -3171,56 +3002,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="69"/>
-      <c r="AF27" s="69"/>
-      <c r="AG27" s="69"/>
-      <c r="AH27" s="69"/>
-      <c r="AI27" s="69"/>
-      <c r="AJ27" s="69"/>
-      <c r="AK27" s="69"/>
-      <c r="AL27" s="70"/>
-      <c r="AM27" s="68"/>
-      <c r="AN27" s="69"/>
-      <c r="AO27" s="69"/>
-      <c r="AP27" s="69"/>
-      <c r="AQ27" s="69"/>
-      <c r="AR27" s="69"/>
-      <c r="AS27" s="69"/>
-      <c r="AT27" s="69"/>
-      <c r="AU27" s="69"/>
-      <c r="AV27" s="69"/>
-      <c r="AW27" s="69"/>
-      <c r="AX27" s="69"/>
-      <c r="AY27" s="69"/>
-      <c r="AZ27" s="70"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="72"/>
+      <c r="AB27" s="72"/>
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="73"/>
+      <c r="AM27" s="71"/>
+      <c r="AN27" s="72"/>
+      <c r="AO27" s="72"/>
+      <c r="AP27" s="72"/>
+      <c r="AQ27" s="72"/>
+      <c r="AR27" s="72"/>
+      <c r="AS27" s="72"/>
+      <c r="AT27" s="72"/>
+      <c r="AU27" s="72"/>
+      <c r="AV27" s="72"/>
+      <c r="AW27" s="72"/>
+      <c r="AX27" s="72"/>
+      <c r="AY27" s="72"/>
+      <c r="AZ27" s="73"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -3228,56 +3059,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
-      <c r="AC28" s="69"/>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="69"/>
-      <c r="AF28" s="69"/>
-      <c r="AG28" s="69"/>
-      <c r="AH28" s="69"/>
-      <c r="AI28" s="69"/>
-      <c r="AJ28" s="69"/>
-      <c r="AK28" s="69"/>
-      <c r="AL28" s="70"/>
-      <c r="AM28" s="68"/>
-      <c r="AN28" s="69"/>
-      <c r="AO28" s="69"/>
-      <c r="AP28" s="69"/>
-      <c r="AQ28" s="69"/>
-      <c r="AR28" s="69"/>
-      <c r="AS28" s="69"/>
-      <c r="AT28" s="69"/>
-      <c r="AU28" s="69"/>
-      <c r="AV28" s="69"/>
-      <c r="AW28" s="69"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="69"/>
-      <c r="AZ28" s="70"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="72"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="72"/>
+      <c r="AJ28" s="72"/>
+      <c r="AK28" s="72"/>
+      <c r="AL28" s="73"/>
+      <c r="AM28" s="71"/>
+      <c r="AN28" s="72"/>
+      <c r="AO28" s="72"/>
+      <c r="AP28" s="72"/>
+      <c r="AQ28" s="72"/>
+      <c r="AR28" s="72"/>
+      <c r="AS28" s="72"/>
+      <c r="AT28" s="72"/>
+      <c r="AU28" s="72"/>
+      <c r="AV28" s="72"/>
+      <c r="AW28" s="72"/>
+      <c r="AX28" s="72"/>
+      <c r="AY28" s="72"/>
+      <c r="AZ28" s="73"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -3285,56 +3116,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="69"/>
-      <c r="AD29" s="69"/>
-      <c r="AE29" s="69"/>
-      <c r="AF29" s="69"/>
-      <c r="AG29" s="69"/>
-      <c r="AH29" s="69"/>
-      <c r="AI29" s="69"/>
-      <c r="AJ29" s="69"/>
-      <c r="AK29" s="69"/>
-      <c r="AL29" s="70"/>
-      <c r="AM29" s="68"/>
-      <c r="AN29" s="69"/>
-      <c r="AO29" s="69"/>
-      <c r="AP29" s="69"/>
-      <c r="AQ29" s="69"/>
-      <c r="AR29" s="69"/>
-      <c r="AS29" s="69"/>
-      <c r="AT29" s="69"/>
-      <c r="AU29" s="69"/>
-      <c r="AV29" s="69"/>
-      <c r="AW29" s="69"/>
-      <c r="AX29" s="69"/>
-      <c r="AY29" s="69"/>
-      <c r="AZ29" s="70"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="72"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="71"/>
+      <c r="AN29" s="72"/>
+      <c r="AO29" s="72"/>
+      <c r="AP29" s="72"/>
+      <c r="AQ29" s="72"/>
+      <c r="AR29" s="72"/>
+      <c r="AS29" s="72"/>
+      <c r="AT29" s="72"/>
+      <c r="AU29" s="72"/>
+      <c r="AV29" s="72"/>
+      <c r="AW29" s="72"/>
+      <c r="AX29" s="72"/>
+      <c r="AY29" s="72"/>
+      <c r="AZ29" s="73"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -3342,56 +3173,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="69"/>
-      <c r="AF30" s="69"/>
-      <c r="AG30" s="69"/>
-      <c r="AH30" s="69"/>
-      <c r="AI30" s="69"/>
-      <c r="AJ30" s="69"/>
-      <c r="AK30" s="69"/>
-      <c r="AL30" s="70"/>
-      <c r="AM30" s="68"/>
-      <c r="AN30" s="69"/>
-      <c r="AO30" s="69"/>
-      <c r="AP30" s="69"/>
-      <c r="AQ30" s="69"/>
-      <c r="AR30" s="69"/>
-      <c r="AS30" s="69"/>
-      <c r="AT30" s="69"/>
-      <c r="AU30" s="69"/>
-      <c r="AV30" s="69"/>
-      <c r="AW30" s="69"/>
-      <c r="AX30" s="69"/>
-      <c r="AY30" s="69"/>
-      <c r="AZ30" s="70"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="72"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="72"/>
+      <c r="AF30" s="72"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="72"/>
+      <c r="AI30" s="72"/>
+      <c r="AJ30" s="72"/>
+      <c r="AK30" s="72"/>
+      <c r="AL30" s="73"/>
+      <c r="AM30" s="71"/>
+      <c r="AN30" s="72"/>
+      <c r="AO30" s="72"/>
+      <c r="AP30" s="72"/>
+      <c r="AQ30" s="72"/>
+      <c r="AR30" s="72"/>
+      <c r="AS30" s="72"/>
+      <c r="AT30" s="72"/>
+      <c r="AU30" s="72"/>
+      <c r="AV30" s="72"/>
+      <c r="AW30" s="72"/>
+      <c r="AX30" s="72"/>
+      <c r="AY30" s="72"/>
+      <c r="AZ30" s="73"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -3399,56 +3230,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="69"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="69"/>
-      <c r="AG31" s="69"/>
-      <c r="AH31" s="69"/>
-      <c r="AI31" s="69"/>
-      <c r="AJ31" s="69"/>
-      <c r="AK31" s="69"/>
-      <c r="AL31" s="70"/>
-      <c r="AM31" s="68"/>
-      <c r="AN31" s="69"/>
-      <c r="AO31" s="69"/>
-      <c r="AP31" s="69"/>
-      <c r="AQ31" s="69"/>
-      <c r="AR31" s="69"/>
-      <c r="AS31" s="69"/>
-      <c r="AT31" s="69"/>
-      <c r="AU31" s="69"/>
-      <c r="AV31" s="69"/>
-      <c r="AW31" s="69"/>
-      <c r="AX31" s="69"/>
-      <c r="AY31" s="69"/>
-      <c r="AZ31" s="70"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="72"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="72"/>
+      <c r="AC31" s="72"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="72"/>
+      <c r="AF31" s="72"/>
+      <c r="AG31" s="72"/>
+      <c r="AH31" s="72"/>
+      <c r="AI31" s="72"/>
+      <c r="AJ31" s="72"/>
+      <c r="AK31" s="72"/>
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="71"/>
+      <c r="AN31" s="72"/>
+      <c r="AO31" s="72"/>
+      <c r="AP31" s="72"/>
+      <c r="AQ31" s="72"/>
+      <c r="AR31" s="72"/>
+      <c r="AS31" s="72"/>
+      <c r="AT31" s="72"/>
+      <c r="AU31" s="72"/>
+      <c r="AV31" s="72"/>
+      <c r="AW31" s="72"/>
+      <c r="AX31" s="72"/>
+      <c r="AY31" s="72"/>
+      <c r="AZ31" s="73"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -3456,56 +3287,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="69"/>
-      <c r="X32" s="69"/>
-      <c r="Y32" s="69"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="69"/>
-      <c r="AB32" s="69"/>
-      <c r="AC32" s="69"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="69"/>
-      <c r="AF32" s="69"/>
-      <c r="AG32" s="69"/>
-      <c r="AH32" s="69"/>
-      <c r="AI32" s="69"/>
-      <c r="AJ32" s="69"/>
-      <c r="AK32" s="69"/>
-      <c r="AL32" s="70"/>
-      <c r="AM32" s="68"/>
-      <c r="AN32" s="69"/>
-      <c r="AO32" s="69"/>
-      <c r="AP32" s="69"/>
-      <c r="AQ32" s="69"/>
-      <c r="AR32" s="69"/>
-      <c r="AS32" s="69"/>
-      <c r="AT32" s="69"/>
-      <c r="AU32" s="69"/>
-      <c r="AV32" s="69"/>
-      <c r="AW32" s="69"/>
-      <c r="AX32" s="69"/>
-      <c r="AY32" s="69"/>
-      <c r="AZ32" s="70"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="72"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="72"/>
+      <c r="AC32" s="72"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="72"/>
+      <c r="AF32" s="72"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="72"/>
+      <c r="AI32" s="72"/>
+      <c r="AJ32" s="72"/>
+      <c r="AK32" s="72"/>
+      <c r="AL32" s="73"/>
+      <c r="AM32" s="71"/>
+      <c r="AN32" s="72"/>
+      <c r="AO32" s="72"/>
+      <c r="AP32" s="72"/>
+      <c r="AQ32" s="72"/>
+      <c r="AR32" s="72"/>
+      <c r="AS32" s="72"/>
+      <c r="AT32" s="72"/>
+      <c r="AU32" s="72"/>
+      <c r="AV32" s="72"/>
+      <c r="AW32" s="72"/>
+      <c r="AX32" s="72"/>
+      <c r="AY32" s="72"/>
+      <c r="AZ32" s="73"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -3513,56 +3344,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="69"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="69"/>
-      <c r="AF33" s="69"/>
-      <c r="AG33" s="69"/>
-      <c r="AH33" s="69"/>
-      <c r="AI33" s="69"/>
-      <c r="AJ33" s="69"/>
-      <c r="AK33" s="69"/>
-      <c r="AL33" s="70"/>
-      <c r="AM33" s="68"/>
-      <c r="AN33" s="69"/>
-      <c r="AO33" s="69"/>
-      <c r="AP33" s="69"/>
-      <c r="AQ33" s="69"/>
-      <c r="AR33" s="69"/>
-      <c r="AS33" s="69"/>
-      <c r="AT33" s="69"/>
-      <c r="AU33" s="69"/>
-      <c r="AV33" s="69"/>
-      <c r="AW33" s="69"/>
-      <c r="AX33" s="69"/>
-      <c r="AY33" s="69"/>
-      <c r="AZ33" s="70"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="72"/>
+      <c r="AC33" s="72"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="72"/>
+      <c r="AF33" s="72"/>
+      <c r="AG33" s="72"/>
+      <c r="AH33" s="72"/>
+      <c r="AI33" s="72"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="72"/>
+      <c r="AL33" s="73"/>
+      <c r="AM33" s="71"/>
+      <c r="AN33" s="72"/>
+      <c r="AO33" s="72"/>
+      <c r="AP33" s="72"/>
+      <c r="AQ33" s="72"/>
+      <c r="AR33" s="72"/>
+      <c r="AS33" s="72"/>
+      <c r="AT33" s="72"/>
+      <c r="AU33" s="72"/>
+      <c r="AV33" s="72"/>
+      <c r="AW33" s="72"/>
+      <c r="AX33" s="72"/>
+      <c r="AY33" s="72"/>
+      <c r="AZ33" s="73"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -3570,56 +3401,56 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="69"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="69"/>
-      <c r="W34" s="69"/>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="69"/>
-      <c r="Z34" s="69"/>
-      <c r="AA34" s="69"/>
-      <c r="AB34" s="69"/>
-      <c r="AC34" s="69"/>
-      <c r="AD34" s="69"/>
-      <c r="AE34" s="69"/>
-      <c r="AF34" s="69"/>
-      <c r="AG34" s="69"/>
-      <c r="AH34" s="69"/>
-      <c r="AI34" s="69"/>
-      <c r="AJ34" s="69"/>
-      <c r="AK34" s="69"/>
-      <c r="AL34" s="70"/>
-      <c r="AM34" s="68"/>
-      <c r="AN34" s="69"/>
-      <c r="AO34" s="69"/>
-      <c r="AP34" s="69"/>
-      <c r="AQ34" s="69"/>
-      <c r="AR34" s="69"/>
-      <c r="AS34" s="69"/>
-      <c r="AT34" s="69"/>
-      <c r="AU34" s="69"/>
-      <c r="AV34" s="69"/>
-      <c r="AW34" s="69"/>
-      <c r="AX34" s="69"/>
-      <c r="AY34" s="69"/>
-      <c r="AZ34" s="70"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="72"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="72"/>
+      <c r="AB34" s="72"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="72"/>
+      <c r="AE34" s="72"/>
+      <c r="AF34" s="72"/>
+      <c r="AG34" s="72"/>
+      <c r="AH34" s="72"/>
+      <c r="AI34" s="72"/>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="72"/>
+      <c r="AL34" s="73"/>
+      <c r="AM34" s="71"/>
+      <c r="AN34" s="72"/>
+      <c r="AO34" s="72"/>
+      <c r="AP34" s="72"/>
+      <c r="AQ34" s="72"/>
+      <c r="AR34" s="72"/>
+      <c r="AS34" s="72"/>
+      <c r="AT34" s="72"/>
+      <c r="AU34" s="72"/>
+      <c r="AV34" s="72"/>
+      <c r="AW34" s="72"/>
+      <c r="AX34" s="72"/>
+      <c r="AY34" s="72"/>
+      <c r="AZ34" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="135">
@@ -3769,18 +3600,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
-  <dimension ref="A1:BA60"/>
+  <dimension ref="A1:BA62"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="34" width="3.28515625" style="13"/>
-    <col min="35" max="35" width="3.28515625" style="13" customWidth="1"/>
-    <col min="36" max="16384" width="3.28515625" style="13"/>
+    <col min="1" max="34" width="3.33203125" style="13"/>
+    <col min="35" max="35" width="3.33203125" style="13" customWidth="1"/>
+    <col min="36" max="16384" width="3.33203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" customFormat="1" ht="12">
+    <row r="1" spans="1:53" customFormat="1" ht="15">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -3832,7 +3665,7 @@
       <c r="AW1" s="26"/>
       <c r="AX1" s="26"/>
     </row>
-    <row r="2" spans="1:53" customFormat="1" ht="12">
+    <row r="2" spans="1:53" customFormat="1" ht="15">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -3884,7 +3717,7 @@
       <c r="AW2" s="28"/>
       <c r="AX2" s="28"/>
     </row>
-    <row r="3" spans="1:53" customFormat="1" ht="12">
+    <row r="3" spans="1:53" customFormat="1" ht="15">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -3936,7 +3769,7 @@
       <c r="AW3" s="28"/>
       <c r="AX3" s="28"/>
     </row>
-    <row r="4" spans="1:53" customFormat="1" ht="12">
+    <row r="4" spans="1:53" customFormat="1" ht="15">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -3988,7 +3821,7 @@
       <c r="AW4" s="28"/>
       <c r="AX4" s="28"/>
     </row>
-    <row r="5" spans="1:53" customFormat="1" ht="12">
+    <row r="5" spans="1:53" customFormat="1" ht="15">
       <c r="A5" s="27" t="s">
         <v>15</v>
       </c>
@@ -4207,7 +4040,7 @@
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
       <c r="D9" s="36" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
@@ -4580,7 +4413,7 @@
     <row r="16" spans="1:53">
       <c r="A16" s="29"/>
       <c r="B16" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -4636,7 +4469,7 @@
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -4741,7 +4574,9 @@
       <c r="A19" s="29"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -4949,9 +4784,7 @@
       <c r="A23" s="29"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -5055,7 +4888,9 @@
       <c r="A25" s="29"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -5063,9 +4898,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -5117,9 +4950,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
-      <c r="L26" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
@@ -5171,7 +5002,9 @@
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="L27" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
@@ -5223,7 +5056,9 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="L28" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
@@ -5317,9 +5152,7 @@
     </row>
     <row r="30" spans="1:50">
       <c r="A30" s="29"/>
-      <c r="B30" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -5369,13 +5202,11 @@
       <c r="AW30" s="14"/>
       <c r="AX30" s="14"/>
     </row>
-    <row r="31" spans="1:50" ht="15.75" customHeight="1">
+    <row r="31" spans="1:50">
       <c r="A31" s="29"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="14" t="s">
-        <v>36</v>
-      </c>
+      <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -5410,7 +5241,7 @@
       <c r="AJ31" s="14"/>
       <c r="AK31" s="14"/>
       <c r="AL31" s="14"/>
-      <c r="AM31" s="35"/>
+      <c r="AM31" s="14"/>
       <c r="AN31" s="14"/>
       <c r="AO31" s="14"/>
       <c r="AP31" s="14"/>
@@ -5425,7 +5256,9 @@
     </row>
     <row r="32" spans="1:50">
       <c r="A32" s="29"/>
-      <c r="B32" s="14"/>
+      <c r="B32" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -5475,11 +5308,13 @@
       <c r="AW32" s="14"/>
       <c r="AX32" s="14"/>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:50" ht="15.75" customHeight="1">
       <c r="A33" s="29"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -5514,7 +5349,7 @@
       <c r="AJ33" s="14"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="14"/>
-      <c r="AM33" s="14"/>
+      <c r="AM33" s="35"/>
       <c r="AN33" s="14"/>
       <c r="AO33" s="14"/>
       <c r="AP33" s="14"/>
@@ -5841,9 +5676,7 @@
     </row>
     <row r="40" spans="1:50">
       <c r="A40" s="29"/>
-      <c r="B40" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -5897,9 +5730,7 @@
       <c r="A41" s="29"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -5949,7 +5780,9 @@
     </row>
     <row r="42" spans="1:50">
       <c r="A42" s="29"/>
-      <c r="B42" s="14"/>
+      <c r="B42" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -6003,7 +5836,9 @@
       <c r="A43" s="29"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="D43" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
@@ -6363,210 +6198,314 @@
       <c r="AW49" s="14"/>
       <c r="AX49" s="14"/>
     </row>
-    <row r="50" spans="1:50" s="77" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="51" spans="1:50" ht="14.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-    </row>
-    <row r="52" spans="1:50" ht="18.75" customHeight="1">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-    </row>
-    <row r="53" spans="1:50" ht="14.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
-    </row>
-    <row r="54" spans="1:50" ht="14.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:50" s="19" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A55" s="29"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="S55" s="75"/>
-      <c r="T55" s="75"/>
-      <c r="U55" s="75"/>
-      <c r="V55" s="75"/>
-      <c r="W55" s="75"/>
-      <c r="X55" s="75"/>
-      <c r="Y55" s="76"/>
-      <c r="Z55" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA55" s="17"/>
-      <c r="AB55" s="17"/>
-      <c r="AC55" s="17"/>
-      <c r="AD55" s="17"/>
-      <c r="AE55" s="17"/>
-      <c r="AF55" s="17"/>
-      <c r="AG55" s="17"/>
-      <c r="AH55" s="17"/>
-      <c r="AI55" s="18"/>
-      <c r="AJ55" s="18"/>
-      <c r="AK55" s="18"/>
-      <c r="AL55" s="18"/>
-      <c r="AM55" s="18"/>
-      <c r="AN55" s="18"/>
-      <c r="AO55" s="18"/>
-      <c r="AP55" s="18"/>
-      <c r="AQ55" s="18"/>
-      <c r="AR55" s="16"/>
+    <row r="50" spans="1:50">
+      <c r="A50" s="29"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="14"/>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="14"/>
+      <c r="AK50" s="14"/>
+      <c r="AL50" s="14"/>
+      <c r="AM50" s="14"/>
+      <c r="AN50" s="14"/>
+      <c r="AO50" s="14"/>
+      <c r="AP50" s="14"/>
+      <c r="AQ50" s="14"/>
+      <c r="AR50" s="14"/>
+      <c r="AS50" s="14"/>
+      <c r="AT50" s="14"/>
+      <c r="AU50" s="14"/>
+      <c r="AV50" s="14"/>
+      <c r="AW50" s="14"/>
+      <c r="AX50" s="14"/>
+    </row>
+    <row r="51" spans="1:50">
+      <c r="A51" s="29"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="14"/>
+      <c r="AI51" s="14"/>
+      <c r="AJ51" s="14"/>
+      <c r="AK51" s="14"/>
+      <c r="AL51" s="14"/>
+      <c r="AM51" s="14"/>
+      <c r="AN51" s="14"/>
+      <c r="AO51" s="14"/>
+      <c r="AP51" s="14"/>
+      <c r="AQ51" s="14"/>
+      <c r="AR51" s="14"/>
+      <c r="AS51" s="14"/>
+      <c r="AT51" s="14"/>
+      <c r="AU51" s="14"/>
+      <c r="AV51" s="14"/>
+      <c r="AW51" s="14"/>
+      <c r="AX51" s="14"/>
+    </row>
+    <row r="52" spans="1:50" s="41" customFormat="1" ht="13.5" customHeight="1"/>
+    <row r="53" spans="1:50">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+    </row>
+    <row r="54" spans="1:50" ht="18.75" customHeight="1">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+    </row>
+    <row r="55" spans="1:50">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
     </row>
     <row r="56" spans="1:50">
-      <c r="A56" s="29"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="33">
-        <v>1</v>
-      </c>
-      <c r="E56" s="32"/>
-      <c r="F56" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="31"/>
-      <c r="X56" s="31"/>
-      <c r="Y56" s="32"/>
-      <c r="Z56" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="31"/>
-      <c r="AC56" s="31"/>
-      <c r="AD56" s="31"/>
-      <c r="AE56" s="31"/>
-      <c r="AF56" s="31"/>
-      <c r="AG56" s="31"/>
-      <c r="AH56" s="31"/>
-      <c r="AI56" s="31"/>
-      <c r="AJ56" s="31"/>
-      <c r="AK56" s="31"/>
-      <c r="AL56" s="31"/>
-      <c r="AM56" s="31"/>
-      <c r="AN56" s="31"/>
-      <c r="AO56" s="31"/>
-      <c r="AP56" s="31"/>
-      <c r="AQ56" s="31"/>
-      <c r="AR56" s="32"/>
-    </row>
-    <row r="57" spans="1:50">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:50" s="19" customFormat="1" ht="22.5" customHeight="1">
       <c r="A57" s="29"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="33">
+      <c r="C57" s="43"/>
+      <c r="D57" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="S57" s="78"/>
+      <c r="T57" s="78"/>
+      <c r="U57" s="78"/>
+      <c r="V57" s="78"/>
+      <c r="W57" s="78"/>
+      <c r="X57" s="78"/>
+      <c r="Y57" s="79"/>
+      <c r="Z57" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA57" s="17"/>
+      <c r="AB57" s="17"/>
+      <c r="AC57" s="17"/>
+      <c r="AD57" s="17"/>
+      <c r="AE57" s="17"/>
+      <c r="AF57" s="17"/>
+      <c r="AG57" s="17"/>
+      <c r="AH57" s="17"/>
+      <c r="AI57" s="18"/>
+      <c r="AJ57" s="18"/>
+      <c r="AK57" s="18"/>
+      <c r="AL57" s="18"/>
+      <c r="AM57" s="18"/>
+      <c r="AN57" s="18"/>
+      <c r="AO57" s="18"/>
+      <c r="AP57" s="18"/>
+      <c r="AQ57" s="18"/>
+      <c r="AR57" s="16"/>
+    </row>
+    <row r="58" spans="1:50">
+      <c r="A58" s="29"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="33">
+        <v>1</v>
+      </c>
+      <c r="E58" s="32"/>
+      <c r="F58" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="31"/>
+      <c r="V58" s="31"/>
+      <c r="W58" s="31"/>
+      <c r="X58" s="31"/>
+      <c r="Y58" s="32"/>
+      <c r="Z58" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA58" s="31"/>
+      <c r="AB58" s="31"/>
+      <c r="AC58" s="31"/>
+      <c r="AD58" s="31"/>
+      <c r="AE58" s="31"/>
+      <c r="AF58" s="31"/>
+      <c r="AG58" s="31"/>
+      <c r="AH58" s="31"/>
+      <c r="AI58" s="31"/>
+      <c r="AJ58" s="31"/>
+      <c r="AK58" s="31"/>
+      <c r="AL58" s="31"/>
+      <c r="AM58" s="31"/>
+      <c r="AN58" s="31"/>
+      <c r="AO58" s="31"/>
+      <c r="AP58" s="31"/>
+      <c r="AQ58" s="31"/>
+      <c r="AR58" s="32"/>
+    </row>
+    <row r="59" spans="1:50">
+      <c r="A59" s="29"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="33">
         <v>2</v>
       </c>
-      <c r="E57" s="32"/>
-      <c r="F57" s="33" t="s">
+      <c r="E59" s="32"/>
+      <c r="F59" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="S59" s="31"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="31"/>
+      <c r="V59" s="31"/>
+      <c r="W59" s="31"/>
+      <c r="X59" s="31"/>
+      <c r="Y59" s="32"/>
+      <c r="Z59" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
-      <c r="W57" s="31"/>
-      <c r="X57" s="31"/>
-      <c r="Y57" s="32"/>
-      <c r="Z57" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA57" s="31"/>
-      <c r="AB57" s="31"/>
-      <c r="AC57" s="31"/>
-      <c r="AD57" s="31"/>
-      <c r="AE57" s="31"/>
-      <c r="AF57" s="31"/>
-      <c r="AG57" s="31"/>
-      <c r="AH57" s="31"/>
-      <c r="AI57" s="31"/>
-      <c r="AJ57" s="31"/>
-      <c r="AK57" s="31"/>
-      <c r="AL57" s="31"/>
-      <c r="AM57" s="31"/>
-      <c r="AN57" s="31"/>
-      <c r="AO57" s="31"/>
-      <c r="AP57" s="31"/>
-      <c r="AQ57" s="31"/>
-      <c r="AR57" s="32"/>
-    </row>
-    <row r="58" spans="1:50" ht="14.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-    </row>
-    <row r="59" spans="1:50" ht="14.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="21"/>
-    </row>
-    <row r="60" spans="1:50" ht="14.25">
+      <c r="AA59" s="31"/>
+      <c r="AB59" s="31"/>
+      <c r="AC59" s="31"/>
+      <c r="AD59" s="31"/>
+      <c r="AE59" s="31"/>
+      <c r="AF59" s="31"/>
+      <c r="AG59" s="31"/>
+      <c r="AH59" s="31"/>
+      <c r="AI59" s="31"/>
+      <c r="AJ59" s="31"/>
+      <c r="AK59" s="31"/>
+      <c r="AL59" s="31"/>
+      <c r="AM59" s="31"/>
+      <c r="AN59" s="31"/>
+      <c r="AO59" s="31"/>
+      <c r="AP59" s="31"/>
+      <c r="AQ59" s="31"/>
+      <c r="AR59" s="32"/>
+    </row>
+    <row r="60" spans="1:50">
       <c r="A60" s="20"/>
-      <c r="B60" s="24"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="21"/>
+    </row>
+    <row r="61" spans="1:50">
+      <c r="A61" s="20"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="21"/>
+    </row>
+    <row r="62" spans="1:50">
+      <c r="A62" s="20"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="R55:Y55"/>
+    <mergeCell ref="R57:Y57"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_共通デザイン.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_共通デザイン.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoitomohiro/document/flutter_document/2021年_テトリス/02_基本設計書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beaming-boy/growth/テトリス/ドキュメント共有フォルダ/2021年_テトリス/02_基本設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03E0FB7-B7A3-0D42-B365-669C2CF766D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A21D1A-46C3-8548-ABA6-643442BD4C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="1" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="-72000" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">共通デザイン!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ヘッダー!$A$1:$AZ$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$BA$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">共通デザイン!$A$1:$AX$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">共通デザイン!$A$1:$AX$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -153,13 +151,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>▼概要</t>
-    <rPh sb="1" eb="3">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -431,6 +422,154 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・文字は昭和初期あたりに使用されている雰囲気のある文字を採用</t>
+    <rPh sb="0" eb="1">
+      <t>・</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>モｚイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウｗア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ｓｙオ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>フンイｋイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モｚイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・文字は日本語を中心、カタカナはOKだが英語は使用しない</t>
+    <rPh sb="0" eb="1">
+      <t>・</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>モｚイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニホｎン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>エイｇオ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・デザイン概要</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・目指すのは、全体的に昔の日本ぽくて、スタイリッシュなイメージのデザイン</t>
+    <rPh sb="1" eb="3">
+      <t>メザスノヘ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ムカｓイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニホｎン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハイイｒオ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>モクメチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・テトリスの色は日本の古色を中心に使用、各画面の背景は灰色木目調で統一</t>
+    <rPh sb="6" eb="7">
+      <t>イｒオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニホｎン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コショｋウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カクガメｎン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハイイｒオ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハイイｒオ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>モクｍエ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トウイｔウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メザスノヘ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="40" eb="45">
+      <t>ハイイｒオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠山</t>
+    <rPh sb="0" eb="1">
+      <t>トオヤｍア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザインの方向性が書いてないので、デザイン概要を追加</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツイｋア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -729,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,9 +983,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -862,6 +998,51 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -889,50 +1070,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -950,15 +1095,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1017,7 +1153,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3445"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3486"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1076,7 +1212,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2416"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2457"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1106,13 +1242,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>44097</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>44096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>146793</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>77050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1149,13 +1285,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>52917</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>26459</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>36348</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>44097</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1192,14 +1328,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>70556</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>43220</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>15618</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15619</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1236,13 +1372,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>116802</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>107177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1588,191 +1724,191 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="53" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="53" t="s">
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="53" t="s">
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="53" t="s">
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="53" t="s">
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="55"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="45"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="56" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="52">
+        <v>44619</v>
+      </c>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="62">
-        <v>44619</v>
-      </c>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="62">
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="52">
         <v>44641</v>
       </c>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="58"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="48"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="67"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="61"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="51"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -1789,6 +1925,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -1797,11 +1938,6 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1814,7 +1950,7 @@
   <dimension ref="A1:AZ34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20:AL20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
@@ -1903,64 +2039,64 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="68">
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70">
         <v>44619</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="71" t="s">
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="72"/>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="73"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="74"/>
+      <c r="AL8" s="75"/>
+      <c r="AM8" s="73"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="75"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="9">
@@ -1968,121 +2104,129 @@
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="74">
+      <c r="C9" s="67">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="68">
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70">
         <v>44641</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="71" t="s">
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="72"/>
-      <c r="AI9" s="72"/>
-      <c r="AJ9" s="72"/>
-      <c r="AK9" s="72"/>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="71"/>
-      <c r="AN9" s="72"/>
-      <c r="AO9" s="72"/>
-      <c r="AP9" s="72"/>
-      <c r="AQ9" s="72"/>
-      <c r="AR9" s="72"/>
-      <c r="AS9" s="72"/>
-      <c r="AT9" s="72"/>
-      <c r="AU9" s="72"/>
-      <c r="AV9" s="72"/>
-      <c r="AW9" s="72"/>
-      <c r="AX9" s="72"/>
-      <c r="AY9" s="72"/>
-      <c r="AZ9" s="73"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="74"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="74"/>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="74"/>
+      <c r="AX9" s="74"/>
+      <c r="AY9" s="74"/>
+      <c r="AZ9" s="75"/>
     </row>
     <row r="10" spans="1:52">
-      <c r="A10" s="9" t="str">
+      <c r="A10" s="9">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="71"/>
-      <c r="AN10" s="72"/>
-      <c r="AO10" s="72"/>
-      <c r="AP10" s="72"/>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="72"/>
-      <c r="AS10" s="72"/>
-      <c r="AT10" s="72"/>
-      <c r="AU10" s="72"/>
-      <c r="AV10" s="72"/>
-      <c r="AW10" s="72"/>
-      <c r="AX10" s="72"/>
-      <c r="AY10" s="72"/>
-      <c r="AZ10" s="73"/>
+      <c r="C10" s="67">
+        <v>1.2</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70">
+        <v>44856</v>
+      </c>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="73"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="75"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9" t="str">
@@ -2090,56 +2234,56 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="72"/>
-      <c r="AL11" s="73"/>
-      <c r="AM11" s="71"/>
-      <c r="AN11" s="72"/>
-      <c r="AO11" s="72"/>
-      <c r="AP11" s="72"/>
-      <c r="AQ11" s="72"/>
-      <c r="AR11" s="72"/>
-      <c r="AS11" s="72"/>
-      <c r="AT11" s="72"/>
-      <c r="AU11" s="72"/>
-      <c r="AV11" s="72"/>
-      <c r="AW11" s="72"/>
-      <c r="AX11" s="72"/>
-      <c r="AY11" s="72"/>
-      <c r="AZ11" s="73"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="74"/>
+      <c r="AH11" s="74"/>
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="74"/>
+      <c r="AK11" s="74"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="73"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="74"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="74"/>
+      <c r="AR11" s="74"/>
+      <c r="AS11" s="74"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="74"/>
+      <c r="AV11" s="74"/>
+      <c r="AW11" s="74"/>
+      <c r="AX11" s="74"/>
+      <c r="AY11" s="74"/>
+      <c r="AZ11" s="75"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -2147,56 +2291,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="72"/>
-      <c r="AL12" s="73"/>
-      <c r="AM12" s="71"/>
-      <c r="AN12" s="72"/>
-      <c r="AO12" s="72"/>
-      <c r="AP12" s="72"/>
-      <c r="AQ12" s="72"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="72"/>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="72"/>
-      <c r="AV12" s="72"/>
-      <c r="AW12" s="72"/>
-      <c r="AX12" s="72"/>
-      <c r="AY12" s="72"/>
-      <c r="AZ12" s="73"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="74"/>
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="74"/>
+      <c r="AI12" s="74"/>
+      <c r="AJ12" s="74"/>
+      <c r="AK12" s="74"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="74"/>
+      <c r="AO12" s="74"/>
+      <c r="AP12" s="74"/>
+      <c r="AQ12" s="74"/>
+      <c r="AR12" s="74"/>
+      <c r="AS12" s="74"/>
+      <c r="AT12" s="74"/>
+      <c r="AU12" s="74"/>
+      <c r="AV12" s="74"/>
+      <c r="AW12" s="74"/>
+      <c r="AX12" s="74"/>
+      <c r="AY12" s="74"/>
+      <c r="AZ12" s="75"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -2204,56 +2348,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="73"/>
-      <c r="AM13" s="71"/>
-      <c r="AN13" s="72"/>
-      <c r="AO13" s="72"/>
-      <c r="AP13" s="72"/>
-      <c r="AQ13" s="72"/>
-      <c r="AR13" s="72"/>
-      <c r="AS13" s="72"/>
-      <c r="AT13" s="72"/>
-      <c r="AU13" s="72"/>
-      <c r="AV13" s="72"/>
-      <c r="AW13" s="72"/>
-      <c r="AX13" s="72"/>
-      <c r="AY13" s="72"/>
-      <c r="AZ13" s="73"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="74"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="73"/>
+      <c r="AN13" s="74"/>
+      <c r="AO13" s="74"/>
+      <c r="AP13" s="74"/>
+      <c r="AQ13" s="74"/>
+      <c r="AR13" s="74"/>
+      <c r="AS13" s="74"/>
+      <c r="AT13" s="74"/>
+      <c r="AU13" s="74"/>
+      <c r="AV13" s="74"/>
+      <c r="AW13" s="74"/>
+      <c r="AX13" s="74"/>
+      <c r="AY13" s="74"/>
+      <c r="AZ13" s="75"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -2261,56 +2405,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="72"/>
-      <c r="AL14" s="73"/>
-      <c r="AM14" s="71"/>
-      <c r="AN14" s="72"/>
-      <c r="AO14" s="72"/>
-      <c r="AP14" s="72"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="72"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="72"/>
-      <c r="AW14" s="72"/>
-      <c r="AX14" s="72"/>
-      <c r="AY14" s="72"/>
-      <c r="AZ14" s="73"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="74"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="73"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="74"/>
+      <c r="AP14" s="74"/>
+      <c r="AQ14" s="74"/>
+      <c r="AR14" s="74"/>
+      <c r="AS14" s="74"/>
+      <c r="AT14" s="74"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="74"/>
+      <c r="AW14" s="74"/>
+      <c r="AX14" s="74"/>
+      <c r="AY14" s="74"/>
+      <c r="AZ14" s="75"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -2318,56 +2462,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="72"/>
-      <c r="AL15" s="73"/>
-      <c r="AM15" s="71"/>
-      <c r="AN15" s="72"/>
-      <c r="AO15" s="72"/>
-      <c r="AP15" s="72"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="72"/>
-      <c r="AS15" s="72"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="72"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="72"/>
-      <c r="AY15" s="72"/>
-      <c r="AZ15" s="73"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="73"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="74"/>
+      <c r="AX15" s="74"/>
+      <c r="AY15" s="74"/>
+      <c r="AZ15" s="75"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -2375,56 +2519,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="71"/>
-      <c r="AN16" s="72"/>
-      <c r="AO16" s="72"/>
-      <c r="AP16" s="72"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="72"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="72"/>
-      <c r="AW16" s="72"/>
-      <c r="AX16" s="72"/>
-      <c r="AY16" s="72"/>
-      <c r="AZ16" s="73"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="74"/>
+      <c r="AI16" s="74"/>
+      <c r="AJ16" s="74"/>
+      <c r="AK16" s="74"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="73"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="74"/>
+      <c r="AR16" s="74"/>
+      <c r="AS16" s="74"/>
+      <c r="AT16" s="74"/>
+      <c r="AU16" s="74"/>
+      <c r="AV16" s="74"/>
+      <c r="AW16" s="74"/>
+      <c r="AX16" s="74"/>
+      <c r="AY16" s="74"/>
+      <c r="AZ16" s="75"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -2432,56 +2576,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="72"/>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="72"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="71"/>
-      <c r="AN17" s="72"/>
-      <c r="AO17" s="72"/>
-      <c r="AP17" s="72"/>
-      <c r="AQ17" s="72"/>
-      <c r="AR17" s="72"/>
-      <c r="AS17" s="72"/>
-      <c r="AT17" s="72"/>
-      <c r="AU17" s="72"/>
-      <c r="AV17" s="72"/>
-      <c r="AW17" s="72"/>
-      <c r="AX17" s="72"/>
-      <c r="AY17" s="72"/>
-      <c r="AZ17" s="73"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="74"/>
+      <c r="AF17" s="74"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="74"/>
+      <c r="AI17" s="74"/>
+      <c r="AJ17" s="74"/>
+      <c r="AK17" s="74"/>
+      <c r="AL17" s="75"/>
+      <c r="AM17" s="73"/>
+      <c r="AN17" s="74"/>
+      <c r="AO17" s="74"/>
+      <c r="AP17" s="74"/>
+      <c r="AQ17" s="74"/>
+      <c r="AR17" s="74"/>
+      <c r="AS17" s="74"/>
+      <c r="AT17" s="74"/>
+      <c r="AU17" s="74"/>
+      <c r="AV17" s="74"/>
+      <c r="AW17" s="74"/>
+      <c r="AX17" s="74"/>
+      <c r="AY17" s="74"/>
+      <c r="AZ17" s="75"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -2489,56 +2633,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="71"/>
-      <c r="AN18" s="72"/>
-      <c r="AO18" s="72"/>
-      <c r="AP18" s="72"/>
-      <c r="AQ18" s="72"/>
-      <c r="AR18" s="72"/>
-      <c r="AS18" s="72"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="72"/>
-      <c r="AW18" s="72"/>
-      <c r="AX18" s="72"/>
-      <c r="AY18" s="72"/>
-      <c r="AZ18" s="73"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="74"/>
+      <c r="AF18" s="74"/>
+      <c r="AG18" s="74"/>
+      <c r="AH18" s="74"/>
+      <c r="AI18" s="74"/>
+      <c r="AJ18" s="74"/>
+      <c r="AK18" s="74"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="73"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="74"/>
+      <c r="AP18" s="74"/>
+      <c r="AQ18" s="74"/>
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="74"/>
+      <c r="AT18" s="74"/>
+      <c r="AU18" s="74"/>
+      <c r="AV18" s="74"/>
+      <c r="AW18" s="74"/>
+      <c r="AX18" s="74"/>
+      <c r="AY18" s="74"/>
+      <c r="AZ18" s="75"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -2546,56 +2690,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="72"/>
-      <c r="AF19" s="72"/>
-      <c r="AG19" s="72"/>
-      <c r="AH19" s="72"/>
-      <c r="AI19" s="72"/>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="72"/>
-      <c r="AL19" s="73"/>
-      <c r="AM19" s="71"/>
-      <c r="AN19" s="72"/>
-      <c r="AO19" s="72"/>
-      <c r="AP19" s="72"/>
-      <c r="AQ19" s="72"/>
-      <c r="AR19" s="72"/>
-      <c r="AS19" s="72"/>
-      <c r="AT19" s="72"/>
-      <c r="AU19" s="72"/>
-      <c r="AV19" s="72"/>
-      <c r="AW19" s="72"/>
-      <c r="AX19" s="72"/>
-      <c r="AY19" s="72"/>
-      <c r="AZ19" s="73"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="74"/>
+      <c r="AD19" s="74"/>
+      <c r="AE19" s="74"/>
+      <c r="AF19" s="74"/>
+      <c r="AG19" s="74"/>
+      <c r="AH19" s="74"/>
+      <c r="AI19" s="74"/>
+      <c r="AJ19" s="74"/>
+      <c r="AK19" s="74"/>
+      <c r="AL19" s="75"/>
+      <c r="AM19" s="73"/>
+      <c r="AN19" s="74"/>
+      <c r="AO19" s="74"/>
+      <c r="AP19" s="74"/>
+      <c r="AQ19" s="74"/>
+      <c r="AR19" s="74"/>
+      <c r="AS19" s="74"/>
+      <c r="AT19" s="74"/>
+      <c r="AU19" s="74"/>
+      <c r="AV19" s="74"/>
+      <c r="AW19" s="74"/>
+      <c r="AX19" s="74"/>
+      <c r="AY19" s="74"/>
+      <c r="AZ19" s="75"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -2603,56 +2747,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="72"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="72"/>
-      <c r="AL20" s="73"/>
-      <c r="AM20" s="71"/>
-      <c r="AN20" s="72"/>
-      <c r="AO20" s="72"/>
-      <c r="AP20" s="72"/>
-      <c r="AQ20" s="72"/>
-      <c r="AR20" s="72"/>
-      <c r="AS20" s="72"/>
-      <c r="AT20" s="72"/>
-      <c r="AU20" s="72"/>
-      <c r="AV20" s="72"/>
-      <c r="AW20" s="72"/>
-      <c r="AX20" s="72"/>
-      <c r="AY20" s="72"/>
-      <c r="AZ20" s="73"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="74"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="74"/>
+      <c r="AF20" s="74"/>
+      <c r="AG20" s="74"/>
+      <c r="AH20" s="74"/>
+      <c r="AI20" s="74"/>
+      <c r="AJ20" s="74"/>
+      <c r="AK20" s="74"/>
+      <c r="AL20" s="75"/>
+      <c r="AM20" s="73"/>
+      <c r="AN20" s="74"/>
+      <c r="AO20" s="74"/>
+      <c r="AP20" s="74"/>
+      <c r="AQ20" s="74"/>
+      <c r="AR20" s="74"/>
+      <c r="AS20" s="74"/>
+      <c r="AT20" s="74"/>
+      <c r="AU20" s="74"/>
+      <c r="AV20" s="74"/>
+      <c r="AW20" s="74"/>
+      <c r="AX20" s="74"/>
+      <c r="AY20" s="74"/>
+      <c r="AZ20" s="75"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -2660,56 +2804,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="72"/>
-      <c r="AF21" s="72"/>
-      <c r="AG21" s="72"/>
-      <c r="AH21" s="72"/>
-      <c r="AI21" s="72"/>
-      <c r="AJ21" s="72"/>
-      <c r="AK21" s="72"/>
-      <c r="AL21" s="73"/>
-      <c r="AM21" s="71"/>
-      <c r="AN21" s="72"/>
-      <c r="AO21" s="72"/>
-      <c r="AP21" s="72"/>
-      <c r="AQ21" s="72"/>
-      <c r="AR21" s="72"/>
-      <c r="AS21" s="72"/>
-      <c r="AT21" s="72"/>
-      <c r="AU21" s="72"/>
-      <c r="AV21" s="72"/>
-      <c r="AW21" s="72"/>
-      <c r="AX21" s="72"/>
-      <c r="AY21" s="72"/>
-      <c r="AZ21" s="73"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="74"/>
+      <c r="AF21" s="74"/>
+      <c r="AG21" s="74"/>
+      <c r="AH21" s="74"/>
+      <c r="AI21" s="74"/>
+      <c r="AJ21" s="74"/>
+      <c r="AK21" s="74"/>
+      <c r="AL21" s="75"/>
+      <c r="AM21" s="73"/>
+      <c r="AN21" s="74"/>
+      <c r="AO21" s="74"/>
+      <c r="AP21" s="74"/>
+      <c r="AQ21" s="74"/>
+      <c r="AR21" s="74"/>
+      <c r="AS21" s="74"/>
+      <c r="AT21" s="74"/>
+      <c r="AU21" s="74"/>
+      <c r="AV21" s="74"/>
+      <c r="AW21" s="74"/>
+      <c r="AX21" s="74"/>
+      <c r="AY21" s="74"/>
+      <c r="AZ21" s="75"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -2717,56 +2861,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="72"/>
-      <c r="AI22" s="72"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="72"/>
-      <c r="AL22" s="73"/>
-      <c r="AM22" s="71"/>
-      <c r="AN22" s="72"/>
-      <c r="AO22" s="72"/>
-      <c r="AP22" s="72"/>
-      <c r="AQ22" s="72"/>
-      <c r="AR22" s="72"/>
-      <c r="AS22" s="72"/>
-      <c r="AT22" s="72"/>
-      <c r="AU22" s="72"/>
-      <c r="AV22" s="72"/>
-      <c r="AW22" s="72"/>
-      <c r="AX22" s="72"/>
-      <c r="AY22" s="72"/>
-      <c r="AZ22" s="73"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="74"/>
+      <c r="AF22" s="74"/>
+      <c r="AG22" s="74"/>
+      <c r="AH22" s="74"/>
+      <c r="AI22" s="74"/>
+      <c r="AJ22" s="74"/>
+      <c r="AK22" s="74"/>
+      <c r="AL22" s="75"/>
+      <c r="AM22" s="73"/>
+      <c r="AN22" s="74"/>
+      <c r="AO22" s="74"/>
+      <c r="AP22" s="74"/>
+      <c r="AQ22" s="74"/>
+      <c r="AR22" s="74"/>
+      <c r="AS22" s="74"/>
+      <c r="AT22" s="74"/>
+      <c r="AU22" s="74"/>
+      <c r="AV22" s="74"/>
+      <c r="AW22" s="74"/>
+      <c r="AX22" s="74"/>
+      <c r="AY22" s="74"/>
+      <c r="AZ22" s="75"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -2774,56 +2918,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="72"/>
-      <c r="AI23" s="72"/>
-      <c r="AJ23" s="72"/>
-      <c r="AK23" s="72"/>
-      <c r="AL23" s="73"/>
-      <c r="AM23" s="71"/>
-      <c r="AN23" s="72"/>
-      <c r="AO23" s="72"/>
-      <c r="AP23" s="72"/>
-      <c r="AQ23" s="72"/>
-      <c r="AR23" s="72"/>
-      <c r="AS23" s="72"/>
-      <c r="AT23" s="72"/>
-      <c r="AU23" s="72"/>
-      <c r="AV23" s="72"/>
-      <c r="AW23" s="72"/>
-      <c r="AX23" s="72"/>
-      <c r="AY23" s="72"/>
-      <c r="AZ23" s="73"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="74"/>
+      <c r="AF23" s="74"/>
+      <c r="AG23" s="74"/>
+      <c r="AH23" s="74"/>
+      <c r="AI23" s="74"/>
+      <c r="AJ23" s="74"/>
+      <c r="AK23" s="74"/>
+      <c r="AL23" s="75"/>
+      <c r="AM23" s="73"/>
+      <c r="AN23" s="74"/>
+      <c r="AO23" s="74"/>
+      <c r="AP23" s="74"/>
+      <c r="AQ23" s="74"/>
+      <c r="AR23" s="74"/>
+      <c r="AS23" s="74"/>
+      <c r="AT23" s="74"/>
+      <c r="AU23" s="74"/>
+      <c r="AV23" s="74"/>
+      <c r="AW23" s="74"/>
+      <c r="AX23" s="74"/>
+      <c r="AY23" s="74"/>
+      <c r="AZ23" s="75"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -2831,56 +2975,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="72"/>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="72"/>
-      <c r="AF24" s="72"/>
-      <c r="AG24" s="72"/>
-      <c r="AH24" s="72"/>
-      <c r="AI24" s="72"/>
-      <c r="AJ24" s="72"/>
-      <c r="AK24" s="72"/>
-      <c r="AL24" s="73"/>
-      <c r="AM24" s="71"/>
-      <c r="AN24" s="72"/>
-      <c r="AO24" s="72"/>
-      <c r="AP24" s="72"/>
-      <c r="AQ24" s="72"/>
-      <c r="AR24" s="72"/>
-      <c r="AS24" s="72"/>
-      <c r="AT24" s="72"/>
-      <c r="AU24" s="72"/>
-      <c r="AV24" s="72"/>
-      <c r="AW24" s="72"/>
-      <c r="AX24" s="72"/>
-      <c r="AY24" s="72"/>
-      <c r="AZ24" s="73"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="74"/>
+      <c r="AG24" s="74"/>
+      <c r="AH24" s="74"/>
+      <c r="AI24" s="74"/>
+      <c r="AJ24" s="74"/>
+      <c r="AK24" s="74"/>
+      <c r="AL24" s="75"/>
+      <c r="AM24" s="73"/>
+      <c r="AN24" s="74"/>
+      <c r="AO24" s="74"/>
+      <c r="AP24" s="74"/>
+      <c r="AQ24" s="74"/>
+      <c r="AR24" s="74"/>
+      <c r="AS24" s="74"/>
+      <c r="AT24" s="74"/>
+      <c r="AU24" s="74"/>
+      <c r="AV24" s="74"/>
+      <c r="AW24" s="74"/>
+      <c r="AX24" s="74"/>
+      <c r="AY24" s="74"/>
+      <c r="AZ24" s="75"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -2888,56 +3032,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="72"/>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="72"/>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="72"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="72"/>
-      <c r="AH25" s="72"/>
-      <c r="AI25" s="72"/>
-      <c r="AJ25" s="72"/>
-      <c r="AK25" s="72"/>
-      <c r="AL25" s="73"/>
-      <c r="AM25" s="71"/>
-      <c r="AN25" s="72"/>
-      <c r="AO25" s="72"/>
-      <c r="AP25" s="72"/>
-      <c r="AQ25" s="72"/>
-      <c r="AR25" s="72"/>
-      <c r="AS25" s="72"/>
-      <c r="AT25" s="72"/>
-      <c r="AU25" s="72"/>
-      <c r="AV25" s="72"/>
-      <c r="AW25" s="72"/>
-      <c r="AX25" s="72"/>
-      <c r="AY25" s="72"/>
-      <c r="AZ25" s="73"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="74"/>
+      <c r="AG25" s="74"/>
+      <c r="AH25" s="74"/>
+      <c r="AI25" s="74"/>
+      <c r="AJ25" s="74"/>
+      <c r="AK25" s="74"/>
+      <c r="AL25" s="75"/>
+      <c r="AM25" s="73"/>
+      <c r="AN25" s="74"/>
+      <c r="AO25" s="74"/>
+      <c r="AP25" s="74"/>
+      <c r="AQ25" s="74"/>
+      <c r="AR25" s="74"/>
+      <c r="AS25" s="74"/>
+      <c r="AT25" s="74"/>
+      <c r="AU25" s="74"/>
+      <c r="AV25" s="74"/>
+      <c r="AW25" s="74"/>
+      <c r="AX25" s="74"/>
+      <c r="AY25" s="74"/>
+      <c r="AZ25" s="75"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -2945,56 +3089,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="72"/>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="72"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="72"/>
-      <c r="AF26" s="72"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="72"/>
-      <c r="AI26" s="72"/>
-      <c r="AJ26" s="72"/>
-      <c r="AK26" s="72"/>
-      <c r="AL26" s="73"/>
-      <c r="AM26" s="71"/>
-      <c r="AN26" s="72"/>
-      <c r="AO26" s="72"/>
-      <c r="AP26" s="72"/>
-      <c r="AQ26" s="72"/>
-      <c r="AR26" s="72"/>
-      <c r="AS26" s="72"/>
-      <c r="AT26" s="72"/>
-      <c r="AU26" s="72"/>
-      <c r="AV26" s="72"/>
-      <c r="AW26" s="72"/>
-      <c r="AX26" s="72"/>
-      <c r="AY26" s="72"/>
-      <c r="AZ26" s="73"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="74"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="74"/>
+      <c r="AA26" s="74"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="74"/>
+      <c r="AD26" s="74"/>
+      <c r="AE26" s="74"/>
+      <c r="AF26" s="74"/>
+      <c r="AG26" s="74"/>
+      <c r="AH26" s="74"/>
+      <c r="AI26" s="74"/>
+      <c r="AJ26" s="74"/>
+      <c r="AK26" s="74"/>
+      <c r="AL26" s="75"/>
+      <c r="AM26" s="73"/>
+      <c r="AN26" s="74"/>
+      <c r="AO26" s="74"/>
+      <c r="AP26" s="74"/>
+      <c r="AQ26" s="74"/>
+      <c r="AR26" s="74"/>
+      <c r="AS26" s="74"/>
+      <c r="AT26" s="74"/>
+      <c r="AU26" s="74"/>
+      <c r="AV26" s="74"/>
+      <c r="AW26" s="74"/>
+      <c r="AX26" s="74"/>
+      <c r="AY26" s="74"/>
+      <c r="AZ26" s="75"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -3002,56 +3146,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="72"/>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="72"/>
-      <c r="AL27" s="73"/>
-      <c r="AM27" s="71"/>
-      <c r="AN27" s="72"/>
-      <c r="AO27" s="72"/>
-      <c r="AP27" s="72"/>
-      <c r="AQ27" s="72"/>
-      <c r="AR27" s="72"/>
-      <c r="AS27" s="72"/>
-      <c r="AT27" s="72"/>
-      <c r="AU27" s="72"/>
-      <c r="AV27" s="72"/>
-      <c r="AW27" s="72"/>
-      <c r="AX27" s="72"/>
-      <c r="AY27" s="72"/>
-      <c r="AZ27" s="73"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="74"/>
+      <c r="AA27" s="74"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="74"/>
+      <c r="AD27" s="74"/>
+      <c r="AE27" s="74"/>
+      <c r="AF27" s="74"/>
+      <c r="AG27" s="74"/>
+      <c r="AH27" s="74"/>
+      <c r="AI27" s="74"/>
+      <c r="AJ27" s="74"/>
+      <c r="AK27" s="74"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="73"/>
+      <c r="AN27" s="74"/>
+      <c r="AO27" s="74"/>
+      <c r="AP27" s="74"/>
+      <c r="AQ27" s="74"/>
+      <c r="AR27" s="74"/>
+      <c r="AS27" s="74"/>
+      <c r="AT27" s="74"/>
+      <c r="AU27" s="74"/>
+      <c r="AV27" s="74"/>
+      <c r="AW27" s="74"/>
+      <c r="AX27" s="74"/>
+      <c r="AY27" s="74"/>
+      <c r="AZ27" s="75"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -3059,56 +3203,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="72"/>
-      <c r="Z28" s="72"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="72"/>
-      <c r="AI28" s="72"/>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="72"/>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="71"/>
-      <c r="AN28" s="72"/>
-      <c r="AO28" s="72"/>
-      <c r="AP28" s="72"/>
-      <c r="AQ28" s="72"/>
-      <c r="AR28" s="72"/>
-      <c r="AS28" s="72"/>
-      <c r="AT28" s="72"/>
-      <c r="AU28" s="72"/>
-      <c r="AV28" s="72"/>
-      <c r="AW28" s="72"/>
-      <c r="AX28" s="72"/>
-      <c r="AY28" s="72"/>
-      <c r="AZ28" s="73"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="74"/>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="74"/>
+      <c r="AF28" s="74"/>
+      <c r="AG28" s="74"/>
+      <c r="AH28" s="74"/>
+      <c r="AI28" s="74"/>
+      <c r="AJ28" s="74"/>
+      <c r="AK28" s="74"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="73"/>
+      <c r="AN28" s="74"/>
+      <c r="AO28" s="74"/>
+      <c r="AP28" s="74"/>
+      <c r="AQ28" s="74"/>
+      <c r="AR28" s="74"/>
+      <c r="AS28" s="74"/>
+      <c r="AT28" s="74"/>
+      <c r="AU28" s="74"/>
+      <c r="AV28" s="74"/>
+      <c r="AW28" s="74"/>
+      <c r="AX28" s="74"/>
+      <c r="AY28" s="74"/>
+      <c r="AZ28" s="75"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -3116,56 +3260,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="72"/>
-      <c r="X29" s="72"/>
-      <c r="Y29" s="72"/>
-      <c r="Z29" s="72"/>
-      <c r="AA29" s="72"/>
-      <c r="AB29" s="72"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="72"/>
-      <c r="AF29" s="72"/>
-      <c r="AG29" s="72"/>
-      <c r="AH29" s="72"/>
-      <c r="AI29" s="72"/>
-      <c r="AJ29" s="72"/>
-      <c r="AK29" s="72"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="71"/>
-      <c r="AN29" s="72"/>
-      <c r="AO29" s="72"/>
-      <c r="AP29" s="72"/>
-      <c r="AQ29" s="72"/>
-      <c r="AR29" s="72"/>
-      <c r="AS29" s="72"/>
-      <c r="AT29" s="72"/>
-      <c r="AU29" s="72"/>
-      <c r="AV29" s="72"/>
-      <c r="AW29" s="72"/>
-      <c r="AX29" s="72"/>
-      <c r="AY29" s="72"/>
-      <c r="AZ29" s="73"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="74"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="74"/>
+      <c r="AA29" s="74"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="74"/>
+      <c r="AF29" s="74"/>
+      <c r="AG29" s="74"/>
+      <c r="AH29" s="74"/>
+      <c r="AI29" s="74"/>
+      <c r="AJ29" s="74"/>
+      <c r="AK29" s="74"/>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="73"/>
+      <c r="AN29" s="74"/>
+      <c r="AO29" s="74"/>
+      <c r="AP29" s="74"/>
+      <c r="AQ29" s="74"/>
+      <c r="AR29" s="74"/>
+      <c r="AS29" s="74"/>
+      <c r="AT29" s="74"/>
+      <c r="AU29" s="74"/>
+      <c r="AV29" s="74"/>
+      <c r="AW29" s="74"/>
+      <c r="AX29" s="74"/>
+      <c r="AY29" s="74"/>
+      <c r="AZ29" s="75"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -3173,56 +3317,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="72"/>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="72"/>
-      <c r="Z30" s="72"/>
-      <c r="AA30" s="72"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="72"/>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="72"/>
-      <c r="AF30" s="72"/>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="72"/>
-      <c r="AI30" s="72"/>
-      <c r="AJ30" s="72"/>
-      <c r="AK30" s="72"/>
-      <c r="AL30" s="73"/>
-      <c r="AM30" s="71"/>
-      <c r="AN30" s="72"/>
-      <c r="AO30" s="72"/>
-      <c r="AP30" s="72"/>
-      <c r="AQ30" s="72"/>
-      <c r="AR30" s="72"/>
-      <c r="AS30" s="72"/>
-      <c r="AT30" s="72"/>
-      <c r="AU30" s="72"/>
-      <c r="AV30" s="72"/>
-      <c r="AW30" s="72"/>
-      <c r="AX30" s="72"/>
-      <c r="AY30" s="72"/>
-      <c r="AZ30" s="73"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="74"/>
+      <c r="U30" s="74"/>
+      <c r="V30" s="74"/>
+      <c r="W30" s="74"/>
+      <c r="X30" s="74"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="74"/>
+      <c r="AA30" s="74"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="74"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="74"/>
+      <c r="AF30" s="74"/>
+      <c r="AG30" s="74"/>
+      <c r="AH30" s="74"/>
+      <c r="AI30" s="74"/>
+      <c r="AJ30" s="74"/>
+      <c r="AK30" s="74"/>
+      <c r="AL30" s="75"/>
+      <c r="AM30" s="73"/>
+      <c r="AN30" s="74"/>
+      <c r="AO30" s="74"/>
+      <c r="AP30" s="74"/>
+      <c r="AQ30" s="74"/>
+      <c r="AR30" s="74"/>
+      <c r="AS30" s="74"/>
+      <c r="AT30" s="74"/>
+      <c r="AU30" s="74"/>
+      <c r="AV30" s="74"/>
+      <c r="AW30" s="74"/>
+      <c r="AX30" s="74"/>
+      <c r="AY30" s="74"/>
+      <c r="AZ30" s="75"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -3230,56 +3374,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="72"/>
-      <c r="X31" s="72"/>
-      <c r="Y31" s="72"/>
-      <c r="Z31" s="72"/>
-      <c r="AA31" s="72"/>
-      <c r="AB31" s="72"/>
-      <c r="AC31" s="72"/>
-      <c r="AD31" s="72"/>
-      <c r="AE31" s="72"/>
-      <c r="AF31" s="72"/>
-      <c r="AG31" s="72"/>
-      <c r="AH31" s="72"/>
-      <c r="AI31" s="72"/>
-      <c r="AJ31" s="72"/>
-      <c r="AK31" s="72"/>
-      <c r="AL31" s="73"/>
-      <c r="AM31" s="71"/>
-      <c r="AN31" s="72"/>
-      <c r="AO31" s="72"/>
-      <c r="AP31" s="72"/>
-      <c r="AQ31" s="72"/>
-      <c r="AR31" s="72"/>
-      <c r="AS31" s="72"/>
-      <c r="AT31" s="72"/>
-      <c r="AU31" s="72"/>
-      <c r="AV31" s="72"/>
-      <c r="AW31" s="72"/>
-      <c r="AX31" s="72"/>
-      <c r="AY31" s="72"/>
-      <c r="AZ31" s="73"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="74"/>
+      <c r="AA31" s="74"/>
+      <c r="AB31" s="74"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="74"/>
+      <c r="AE31" s="74"/>
+      <c r="AF31" s="74"/>
+      <c r="AG31" s="74"/>
+      <c r="AH31" s="74"/>
+      <c r="AI31" s="74"/>
+      <c r="AJ31" s="74"/>
+      <c r="AK31" s="74"/>
+      <c r="AL31" s="75"/>
+      <c r="AM31" s="73"/>
+      <c r="AN31" s="74"/>
+      <c r="AO31" s="74"/>
+      <c r="AP31" s="74"/>
+      <c r="AQ31" s="74"/>
+      <c r="AR31" s="74"/>
+      <c r="AS31" s="74"/>
+      <c r="AT31" s="74"/>
+      <c r="AU31" s="74"/>
+      <c r="AV31" s="74"/>
+      <c r="AW31" s="74"/>
+      <c r="AX31" s="74"/>
+      <c r="AY31" s="74"/>
+      <c r="AZ31" s="75"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -3287,56 +3431,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="72"/>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="72"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="72"/>
-      <c r="AF32" s="72"/>
-      <c r="AG32" s="72"/>
-      <c r="AH32" s="72"/>
-      <c r="AI32" s="72"/>
-      <c r="AJ32" s="72"/>
-      <c r="AK32" s="72"/>
-      <c r="AL32" s="73"/>
-      <c r="AM32" s="71"/>
-      <c r="AN32" s="72"/>
-      <c r="AO32" s="72"/>
-      <c r="AP32" s="72"/>
-      <c r="AQ32" s="72"/>
-      <c r="AR32" s="72"/>
-      <c r="AS32" s="72"/>
-      <c r="AT32" s="72"/>
-      <c r="AU32" s="72"/>
-      <c r="AV32" s="72"/>
-      <c r="AW32" s="72"/>
-      <c r="AX32" s="72"/>
-      <c r="AY32" s="72"/>
-      <c r="AZ32" s="73"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="74"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="74"/>
+      <c r="AA32" s="74"/>
+      <c r="AB32" s="74"/>
+      <c r="AC32" s="74"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="74"/>
+      <c r="AF32" s="74"/>
+      <c r="AG32" s="74"/>
+      <c r="AH32" s="74"/>
+      <c r="AI32" s="74"/>
+      <c r="AJ32" s="74"/>
+      <c r="AK32" s="74"/>
+      <c r="AL32" s="75"/>
+      <c r="AM32" s="73"/>
+      <c r="AN32" s="74"/>
+      <c r="AO32" s="74"/>
+      <c r="AP32" s="74"/>
+      <c r="AQ32" s="74"/>
+      <c r="AR32" s="74"/>
+      <c r="AS32" s="74"/>
+      <c r="AT32" s="74"/>
+      <c r="AU32" s="74"/>
+      <c r="AV32" s="74"/>
+      <c r="AW32" s="74"/>
+      <c r="AX32" s="74"/>
+      <c r="AY32" s="74"/>
+      <c r="AZ32" s="75"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -3344,56 +3488,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="72"/>
-      <c r="X33" s="72"/>
-      <c r="Y33" s="72"/>
-      <c r="Z33" s="72"/>
-      <c r="AA33" s="72"/>
-      <c r="AB33" s="72"/>
-      <c r="AC33" s="72"/>
-      <c r="AD33" s="72"/>
-      <c r="AE33" s="72"/>
-      <c r="AF33" s="72"/>
-      <c r="AG33" s="72"/>
-      <c r="AH33" s="72"/>
-      <c r="AI33" s="72"/>
-      <c r="AJ33" s="72"/>
-      <c r="AK33" s="72"/>
-      <c r="AL33" s="73"/>
-      <c r="AM33" s="71"/>
-      <c r="AN33" s="72"/>
-      <c r="AO33" s="72"/>
-      <c r="AP33" s="72"/>
-      <c r="AQ33" s="72"/>
-      <c r="AR33" s="72"/>
-      <c r="AS33" s="72"/>
-      <c r="AT33" s="72"/>
-      <c r="AU33" s="72"/>
-      <c r="AV33" s="72"/>
-      <c r="AW33" s="72"/>
-      <c r="AX33" s="72"/>
-      <c r="AY33" s="72"/>
-      <c r="AZ33" s="73"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="74"/>
+      <c r="U33" s="74"/>
+      <c r="V33" s="74"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="74"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="74"/>
+      <c r="AA33" s="74"/>
+      <c r="AB33" s="74"/>
+      <c r="AC33" s="74"/>
+      <c r="AD33" s="74"/>
+      <c r="AE33" s="74"/>
+      <c r="AF33" s="74"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="74"/>
+      <c r="AI33" s="74"/>
+      <c r="AJ33" s="74"/>
+      <c r="AK33" s="74"/>
+      <c r="AL33" s="75"/>
+      <c r="AM33" s="73"/>
+      <c r="AN33" s="74"/>
+      <c r="AO33" s="74"/>
+      <c r="AP33" s="74"/>
+      <c r="AQ33" s="74"/>
+      <c r="AR33" s="74"/>
+      <c r="AS33" s="74"/>
+      <c r="AT33" s="74"/>
+      <c r="AU33" s="74"/>
+      <c r="AV33" s="74"/>
+      <c r="AW33" s="74"/>
+      <c r="AX33" s="74"/>
+      <c r="AY33" s="74"/>
+      <c r="AZ33" s="75"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -3401,59 +3545,179 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="72"/>
-      <c r="Y34" s="72"/>
-      <c r="Z34" s="72"/>
-      <c r="AA34" s="72"/>
-      <c r="AB34" s="72"/>
-      <c r="AC34" s="72"/>
-      <c r="AD34" s="72"/>
-      <c r="AE34" s="72"/>
-      <c r="AF34" s="72"/>
-      <c r="AG34" s="72"/>
-      <c r="AH34" s="72"/>
-      <c r="AI34" s="72"/>
-      <c r="AJ34" s="72"/>
-      <c r="AK34" s="72"/>
-      <c r="AL34" s="73"/>
-      <c r="AM34" s="71"/>
-      <c r="AN34" s="72"/>
-      <c r="AO34" s="72"/>
-      <c r="AP34" s="72"/>
-      <c r="AQ34" s="72"/>
-      <c r="AR34" s="72"/>
-      <c r="AS34" s="72"/>
-      <c r="AT34" s="72"/>
-      <c r="AU34" s="72"/>
-      <c r="AV34" s="72"/>
-      <c r="AW34" s="72"/>
-      <c r="AX34" s="72"/>
-      <c r="AY34" s="72"/>
-      <c r="AZ34" s="73"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="74"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="74"/>
+      <c r="AA34" s="74"/>
+      <c r="AB34" s="74"/>
+      <c r="AC34" s="74"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="74"/>
+      <c r="AF34" s="74"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="74"/>
+      <c r="AI34" s="74"/>
+      <c r="AJ34" s="74"/>
+      <c r="AK34" s="74"/>
+      <c r="AL34" s="75"/>
+      <c r="AM34" s="73"/>
+      <c r="AN34" s="74"/>
+      <c r="AO34" s="74"/>
+      <c r="AP34" s="74"/>
+      <c r="AQ34" s="74"/>
+      <c r="AR34" s="74"/>
+      <c r="AS34" s="74"/>
+      <c r="AT34" s="74"/>
+      <c r="AU34" s="74"/>
+      <c r="AV34" s="74"/>
+      <c r="AW34" s="74"/>
+      <c r="AX34" s="74"/>
+      <c r="AY34" s="74"/>
+      <c r="AZ34" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:AL8"/>
+    <mergeCell ref="AM8:AZ8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:AL9"/>
+    <mergeCell ref="AM9:AZ9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="L34:P34"/>
@@ -3469,126 +3733,6 @@
     <mergeCell ref="L33:P33"/>
     <mergeCell ref="Q33:AL33"/>
     <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="Q8:AL8"/>
-    <mergeCell ref="AM8:AZ8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q9:AL9"/>
-    <mergeCell ref="AM9:AZ9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3600,10 +3744,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
-  <dimension ref="A1:BA62"/>
+  <dimension ref="A1:BA61"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="AL22" sqref="AL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
@@ -3821,11 +3965,11 @@
       <c r="AW4" s="28"/>
       <c r="AX4" s="28"/>
     </row>
-    <row r="5" spans="1:53" customFormat="1" ht="15">
-      <c r="A5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="28"/>
+    <row r="5" spans="1:53" customFormat="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="28" t="s">
+        <v>45</v>
+      </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -3879,7 +4023,9 @@
       <c r="A6" s="29"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="D6" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -3927,286 +4073,281 @@
       <c r="AW6" s="28"/>
       <c r="AX6" s="28"/>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:53" customFormat="1">
       <c r="A7" s="29"/>
-      <c r="B7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-    </row>
-    <row r="8" spans="1:53">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="28"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="28"/>
+      <c r="AX7" s="28"/>
+    </row>
+    <row r="8" spans="1:53" customFormat="1">
       <c r="A8" s="29"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-    </row>
-    <row r="9" spans="1:53" s="37" customFormat="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="36"/>
-      <c r="AQ9" s="36"/>
-      <c r="AR9" s="36"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="36"/>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="36"/>
-      <c r="AW9" s="36"/>
-      <c r="AX9" s="36"/>
-      <c r="AY9" s="36"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="36"/>
-    </row>
-    <row r="10" spans="1:53" s="37" customFormat="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="36"/>
-      <c r="AP10" s="36"/>
-      <c r="AQ10" s="36"/>
-      <c r="AR10" s="36"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="36"/>
-      <c r="AU10" s="36"/>
-      <c r="AV10" s="36"/>
-      <c r="AW10" s="36"/>
-      <c r="AX10" s="36"/>
-      <c r="AY10" s="36"/>
-      <c r="AZ10" s="36"/>
-      <c r="BA10" s="36"/>
-    </row>
-    <row r="11" spans="1:53" s="37" customFormat="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="36"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="36"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="36"/>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="36"/>
-      <c r="AW11" s="36"/>
-      <c r="AX11" s="36"/>
-      <c r="AY11" s="36"/>
-      <c r="AZ11" s="36"/>
-      <c r="BA11" s="36"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="28"/>
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="28"/>
+    </row>
+    <row r="9" spans="1:53" customFormat="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="28"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="28"/>
+      <c r="AT9" s="28"/>
+      <c r="AU9" s="28"/>
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="28"/>
+      <c r="AX9" s="28"/>
+    </row>
+    <row r="10" spans="1:53" customFormat="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="28"/>
+      <c r="AU10" s="28"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="28"/>
+      <c r="AX10" s="28"/>
+    </row>
+    <row r="11" spans="1:53">
+      <c r="A11" s="29"/>
+      <c r="B11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="29"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -4254,57 +4395,62 @@
       <c r="AW12" s="14"/>
       <c r="AX12" s="14"/>
     </row>
-    <row r="13" spans="1:53">
-      <c r="A13" s="29"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="14"/>
-      <c r="AP13" s="14"/>
-      <c r="AQ13" s="14"/>
-      <c r="AR13" s="14"/>
-      <c r="AS13" s="14"/>
-      <c r="AT13" s="14"/>
-      <c r="AU13" s="14"/>
-      <c r="AV13" s="14"/>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="14"/>
+    <row r="13" spans="1:53" s="37" customFormat="1">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="36"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="36"/>
+      <c r="AZ13" s="36"/>
+      <c r="BA13" s="36"/>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="29"/>
@@ -4327,7 +4473,7 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
+      <c r="U14" s="19"/>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
@@ -4360,7 +4506,9 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="29"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -4379,7 +4527,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="19"/>
+      <c r="U15" s="14"/>
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
@@ -4412,11 +4560,11 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="29"/>
-      <c r="B16" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="B16" s="14"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -4468,9 +4616,7 @@
       <c r="A17" s="29"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -4522,7 +4668,9 @@
       <c r="A18" s="29"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -4574,9 +4722,7 @@
       <c r="A19" s="29"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -4836,7 +4982,9 @@
       <c r="A24" s="29"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -4888,9 +5036,7 @@
       <c r="A25" s="29"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -4950,7 +5096,9 @@
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="L26" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
@@ -5056,9 +5204,7 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
@@ -5204,7 +5350,9 @@
     </row>
     <row r="31" spans="1:50">
       <c r="A31" s="29"/>
-      <c r="B31" s="14"/>
+      <c r="B31" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -5254,13 +5402,13 @@
       <c r="AW31" s="14"/>
       <c r="AX31" s="14"/>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:50" ht="15.75" customHeight="1">
       <c r="A32" s="29"/>
-      <c r="B32" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="B32" s="14"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -5295,7 +5443,7 @@
       <c r="AJ32" s="14"/>
       <c r="AK32" s="14"/>
       <c r="AL32" s="14"/>
-      <c r="AM32" s="14"/>
+      <c r="AM32" s="35"/>
       <c r="AN32" s="14"/>
       <c r="AO32" s="14"/>
       <c r="AP32" s="14"/>
@@ -5308,13 +5456,11 @@
       <c r="AW32" s="14"/>
       <c r="AX32" s="14"/>
     </row>
-    <row r="33" spans="1:50" ht="15.75" customHeight="1">
+    <row r="33" spans="1:50">
       <c r="A33" s="29"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -5349,7 +5495,7 @@
       <c r="AJ33" s="14"/>
       <c r="AK33" s="14"/>
       <c r="AL33" s="14"/>
-      <c r="AM33" s="35"/>
+      <c r="AM33" s="14"/>
       <c r="AN33" s="14"/>
       <c r="AO33" s="14"/>
       <c r="AP33" s="14"/>
@@ -5728,7 +5874,9 @@
     </row>
     <row r="41" spans="1:50">
       <c r="A41" s="29"/>
-      <c r="B41" s="14"/>
+      <c r="B41" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -5780,11 +5928,11 @@
     </row>
     <row r="42" spans="1:50">
       <c r="A42" s="29"/>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
@@ -5836,9 +5984,7 @@
       <c r="A43" s="29"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
@@ -6250,142 +6396,144 @@
       <c r="AW50" s="14"/>
       <c r="AX50" s="14"/>
     </row>
-    <row r="51" spans="1:50">
-      <c r="A51" s="29"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="14"/>
-      <c r="Y51" s="14"/>
-      <c r="Z51" s="14"/>
-      <c r="AA51" s="14"/>
-      <c r="AB51" s="14"/>
-      <c r="AC51" s="14"/>
-      <c r="AD51" s="14"/>
-      <c r="AE51" s="14"/>
-      <c r="AF51" s="14"/>
-      <c r="AG51" s="14"/>
-      <c r="AH51" s="14"/>
-      <c r="AI51" s="14"/>
-      <c r="AJ51" s="14"/>
-      <c r="AK51" s="14"/>
-      <c r="AL51" s="14"/>
-      <c r="AM51" s="14"/>
-      <c r="AN51" s="14"/>
-      <c r="AO51" s="14"/>
-      <c r="AP51" s="14"/>
-      <c r="AQ51" s="14"/>
-      <c r="AR51" s="14"/>
-      <c r="AS51" s="14"/>
-      <c r="AT51" s="14"/>
-      <c r="AU51" s="14"/>
-      <c r="AV51" s="14"/>
-      <c r="AW51" s="14"/>
-      <c r="AX51" s="14"/>
-    </row>
-    <row r="52" spans="1:50" s="41" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="53" spans="1:50">
+    <row r="51" spans="1:50" s="40" customFormat="1" ht="13.5" customHeight="1"/>
+    <row r="52" spans="1:50">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+    </row>
+    <row r="53" spans="1:50" ht="18.75" customHeight="1">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
     </row>
-    <row r="54" spans="1:50" ht="18.75" customHeight="1">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+    <row r="54" spans="1:50">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
     </row>
     <row r="55" spans="1:50">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="21"/>
-    </row>
-    <row r="56" spans="1:50">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:50" s="19" customFormat="1" ht="22.5" customHeight="1">
+      <c r="D55" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:50" s="19" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A56" s="29"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="77"/>
+      <c r="T56" s="77"/>
+      <c r="U56" s="77"/>
+      <c r="V56" s="77"/>
+      <c r="W56" s="77"/>
+      <c r="X56" s="77"/>
+      <c r="Y56" s="78"/>
+      <c r="Z56" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA56" s="17"/>
+      <c r="AB56" s="17"/>
+      <c r="AC56" s="17"/>
+      <c r="AD56" s="17"/>
+      <c r="AE56" s="17"/>
+      <c r="AF56" s="17"/>
+      <c r="AG56" s="17"/>
+      <c r="AH56" s="17"/>
+      <c r="AI56" s="18"/>
+      <c r="AJ56" s="18"/>
+      <c r="AK56" s="18"/>
+      <c r="AL56" s="18"/>
+      <c r="AM56" s="18"/>
+      <c r="AN56" s="18"/>
+      <c r="AO56" s="18"/>
+      <c r="AP56" s="18"/>
+      <c r="AQ56" s="18"/>
+      <c r="AR56" s="16"/>
+    </row>
+    <row r="57" spans="1:50">
       <c r="A57" s="29"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="77" t="s">
+      <c r="C57" s="42"/>
+      <c r="D57" s="33">
+        <v>1</v>
+      </c>
+      <c r="E57" s="32"/>
+      <c r="F57" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="S57" s="78"/>
-      <c r="T57" s="78"/>
-      <c r="U57" s="78"/>
-      <c r="V57" s="78"/>
-      <c r="W57" s="78"/>
-      <c r="X57" s="78"/>
-      <c r="Y57" s="79"/>
-      <c r="Z57" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA57" s="17"/>
-      <c r="AB57" s="17"/>
-      <c r="AC57" s="17"/>
-      <c r="AD57" s="17"/>
-      <c r="AE57" s="17"/>
-      <c r="AF57" s="17"/>
-      <c r="AG57" s="17"/>
-      <c r="AH57" s="17"/>
-      <c r="AI57" s="18"/>
-      <c r="AJ57" s="18"/>
-      <c r="AK57" s="18"/>
-      <c r="AL57" s="18"/>
-      <c r="AM57" s="18"/>
-      <c r="AN57" s="18"/>
-      <c r="AO57" s="18"/>
-      <c r="AP57" s="18"/>
-      <c r="AQ57" s="18"/>
-      <c r="AR57" s="16"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="31"/>
+      <c r="V57" s="31"/>
+      <c r="W57" s="31"/>
+      <c r="X57" s="31"/>
+      <c r="Y57" s="32"/>
+      <c r="Z57" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA57" s="31"/>
+      <c r="AB57" s="31"/>
+      <c r="AC57" s="31"/>
+      <c r="AD57" s="31"/>
+      <c r="AE57" s="31"/>
+      <c r="AF57" s="31"/>
+      <c r="AG57" s="31"/>
+      <c r="AH57" s="31"/>
+      <c r="AI57" s="31"/>
+      <c r="AJ57" s="31"/>
+      <c r="AK57" s="31"/>
+      <c r="AL57" s="31"/>
+      <c r="AM57" s="31"/>
+      <c r="AN57" s="31"/>
+      <c r="AO57" s="31"/>
+      <c r="AP57" s="31"/>
+      <c r="AQ57" s="31"/>
+      <c r="AR57" s="32"/>
     </row>
     <row r="58" spans="1:50">
       <c r="A58" s="29"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="43"/>
+      <c r="C58" s="42"/>
       <c r="D58" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="32"/>
       <c r="F58" s="33" t="s">
@@ -6403,7 +6551,7 @@
       <c r="P58" s="31"/>
       <c r="Q58" s="32"/>
       <c r="R58" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S58" s="31"/>
       <c r="T58" s="31"/>
@@ -6412,8 +6560,8 @@
       <c r="W58" s="31"/>
       <c r="X58" s="31"/>
       <c r="Y58" s="32"/>
-      <c r="Z58" s="42" t="s">
-        <v>23</v>
+      <c r="Z58" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="AA58" s="31"/>
       <c r="AB58" s="31"/>
@@ -6435,77 +6583,23 @@
       <c r="AR58" s="32"/>
     </row>
     <row r="59" spans="1:50">
-      <c r="A59" s="29"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="33">
-        <v>2</v>
-      </c>
-      <c r="E59" s="32"/>
-      <c r="F59" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="31"/>
-      <c r="W59" s="31"/>
-      <c r="X59" s="31"/>
-      <c r="Y59" s="32"/>
-      <c r="Z59" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA59" s="31"/>
-      <c r="AB59" s="31"/>
-      <c r="AC59" s="31"/>
-      <c r="AD59" s="31"/>
-      <c r="AE59" s="31"/>
-      <c r="AF59" s="31"/>
-      <c r="AG59" s="31"/>
-      <c r="AH59" s="31"/>
-      <c r="AI59" s="31"/>
-      <c r="AJ59" s="31"/>
-      <c r="AK59" s="31"/>
-      <c r="AL59" s="31"/>
-      <c r="AM59" s="31"/>
-      <c r="AN59" s="31"/>
-      <c r="AO59" s="31"/>
-      <c r="AP59" s="31"/>
-      <c r="AQ59" s="31"/>
-      <c r="AR59" s="32"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
     </row>
     <row r="60" spans="1:50">
       <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="21"/>
     </row>
     <row r="61" spans="1:50">
       <c r="A61" s="20"/>
-      <c r="B61" s="23"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="21"/>
-    </row>
-    <row r="62" spans="1:50">
-      <c r="A62" s="20"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="R57:Y57"/>
+    <mergeCell ref="R56:Y56"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
